--- a/test_case/integration-test-case_v3.xlsx
+++ b/test_case/integration-test-case_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0CAC0B-CCA1-4506-94FA-8600E39BC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B310FE44-C6A5-4E2B-8532-D52EBF913160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="216">
   <si>
     <t>ver</t>
   </si>
@@ -240,6 +240,51 @@
   </si>
   <si>
     <t>更新画面が表示される</t>
+  </si>
+  <si>
+    <t>削除画面</t>
+  </si>
+  <si>
+    <t>削除画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除画面から削除確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.【確認する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除確認画面が表示される</t>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+  </si>
+  <si>
+    <t>削除確認画面から削除完了画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.【削除する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除完了画面が表示される</t>
+  </si>
+  <si>
+    <t>削除確認画面から削除画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除確認画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除確認画面から登録画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除完了画面</t>
+  </si>
+  <si>
+    <t>削除完了画面からTOP画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除完了画面から一覧画面へ遷移できる</t>
   </si>
   <si>
     <t>入力データの保持</t>
@@ -1487,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1616,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B28" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B38" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="10"/>
@@ -2110,7 +2155,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:16" ht="36.75">
+    <row r="17" spans="1:15" ht="36.75">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2155,7 +2200,7 @@
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:16" ht="36.75">
+    <row r="18" spans="1:15" ht="36.75">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -2200,7 +2245,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:16" ht="36.75">
+    <row r="19" spans="1:15" ht="36.75">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -2242,11 +2287,14 @@
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:16" ht="36.75">
+    <row r="20" spans="1:15" ht="36.75">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -2271,11 +2319,14 @@
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:16" ht="36.75">
+    <row r="21" spans="1:15" ht="36.75">
       <c r="A21" s="4">
         <v>3</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -2300,785 +2351,707 @@
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:16" ht="73.5">
+    <row r="22" spans="1:15" ht="36.75">
       <c r="A22" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="48">
-        <f>$B$5</f>
-        <v>1</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>21</v>
-      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
     </row>
-    <row r="23" spans="1:16" ht="55.5">
+    <row r="23" spans="1:15" ht="36.75">
       <c r="A23" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="48">
-        <f>$B$7</f>
-        <v>3</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
     </row>
-    <row r="24" spans="1:16" ht="73.5">
+    <row r="24" spans="1:15" ht="36.75">
       <c r="A24" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C24" s="48">
-        <f>$B$9</f>
-        <v>5</v>
+        <f>$B$20</f>
+        <v>16</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="43">
-        <v>45037</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
     </row>
-    <row r="25" spans="1:16" ht="275.25">
+    <row r="25" spans="1:15" ht="36.75">
       <c r="A25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C25" s="48">
-        <f>$B$8</f>
-        <v>4</v>
+        <f>$B$24</f>
+        <v>20</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M25" s="44" t="s">
-        <v>21</v>
-      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
     </row>
-    <row r="26" spans="1:16" ht="256.5">
+    <row r="26" spans="1:15" ht="36.75">
       <c r="A26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="48">
+        <f>$B$24</f>
+        <v>20</v>
+      </c>
       <c r="D26" s="13" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="43">
-        <v>45037</v>
-      </c>
-      <c r="M26" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="O26" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="256.5">
+        <v>27</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:15" ht="36.75">
       <c r="A27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="48">
+        <f>$B$24</f>
+        <v>20</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M27" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="55.5">
+        <v>23</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+    </row>
+    <row r="28" spans="1:15" ht="36.75">
       <c r="A28" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C28" s="48">
-        <f t="shared" ref="C28:C31" si="4">$B$8</f>
+        <f>$B$24</f>
+        <v>20</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+    </row>
+    <row r="29" spans="1:15" ht="36.75">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="48">
+        <f>$B$25</f>
+        <v>21</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+    </row>
+    <row r="30" spans="1:15" ht="36.75">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="48">
+        <f>$B$25</f>
+        <v>21</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:15" ht="36.75">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="48">
+        <f>$B$25</f>
+        <v>21</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+    </row>
+    <row r="32" spans="1:15" ht="73.5">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="48">
+        <f>$B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+    </row>
+    <row r="33" spans="1:16" ht="55.5">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="48">
+        <f>$B$7</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+    </row>
+    <row r="34" spans="1:16" ht="73.5">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="48">
+        <f>$B$9</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="43">
+        <v>45037</v>
+      </c>
+      <c r="M34" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+    </row>
+    <row r="35" spans="1:16" ht="275.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C35" s="48">
+        <f>$B$8</f>
         <v>4</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="43">
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="43">
         <v>45033</v>
       </c>
-      <c r="M28" s="44" t="s">
+      <c r="M35" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+    </row>
+    <row r="36" spans="1:16" ht="256.5">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O28" s="46" t="s">
+      <c r="E36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="73.5">
-      <c r="A29" s="4">
+      <c r="F36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="43">
+        <v>45037</v>
+      </c>
+      <c r="M36" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="256.5">
+      <c r="A37" s="4">
         <v>1</v>
       </c>
-      <c r="B29" s="4">
-        <f t="shared" ref="B29:B85" si="5">ROW()-4</f>
-        <v>25</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M37" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+    </row>
+    <row r="38" spans="1:16" ht="55.5">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="48">
+        <f t="shared" ref="C38:C41" si="4">$B$8</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M38" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O38" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="73.5">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" ref="B39:B95" si="5">ROW()-4</f>
+        <v>35</v>
+      </c>
+      <c r="C39" s="48">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="43">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="43">
         <v>45033</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="55.5">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="C30" s="48">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M30" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" ht="36.75">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="C31" s="48">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M31" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-    </row>
-    <row r="32" spans="1:16" ht="55.5">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-    </row>
-    <row r="33" spans="1:15" ht="92.25">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-    </row>
-    <row r="34" spans="1:15" ht="92.25">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M34" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-    </row>
-    <row r="35" spans="1:15" ht="92.25">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M35" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-    </row>
-    <row r="36" spans="1:15" ht="73.5">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="43">
-        <v>45061</v>
-      </c>
-      <c r="M36" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" ht="36.75">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M37" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-    </row>
-    <row r="38" spans="1:15" ht="55.5">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="43">
-        <v>45058</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-    </row>
-    <row r="39" spans="1:15" ht="55.5">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="43">
-        <v>45058</v>
       </c>
       <c r="M39" s="44" t="s">
         <v>21</v>
@@ -3086,203 +3059,425 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:16" ht="55.5">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
       <c r="B40" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="44"/>
+      <c r="E40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M40" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:16" ht="36.75">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
       <c r="B41" s="4">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="44"/>
+      <c r="E41" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M41" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:16" ht="55.5">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
       <c r="B42" s="4">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="44"/>
+      <c r="D42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:16" ht="92.25">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
       <c r="B43" s="4">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="44"/>
+      <c r="D43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M43" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:16" ht="92.25">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
       <c r="B44" s="4">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="44"/>
+      <c r="D44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M44" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:16" ht="92.25">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
       <c r="B45" s="4">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="44"/>
+      <c r="D45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M45" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:16" ht="73.5">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
       <c r="B46" s="4">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="44"/>
+      <c r="D46" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="43">
+        <v>45061</v>
+      </c>
+      <c r="M46" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N46" s="36"/>
       <c r="O46" s="36"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:16" ht="36.75">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
       <c r="B47" s="4">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="44"/>
+      <c r="D47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M47" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:16" ht="55.5">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
       <c r="B48" s="4">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="44"/>
+      <c r="D48" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="43">
+        <v>45058</v>
+      </c>
+      <c r="M48" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:15" ht="55.5">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
       <c r="B49" s="4">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="44"/>
+      <c r="D49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="43">
+        <v>45058</v>
+      </c>
+      <c r="M49" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
     </row>
@@ -4009,7 +4204,7 @@
     <row r="86" spans="1:15">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
-        <f t="shared" ref="B86:B119" si="6">ROW()-4</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="C86" s="10"/>
@@ -4029,7 +4224,7 @@
     <row r="87" spans="1:15">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="C87" s="10"/>
@@ -4049,7 +4244,7 @@
     <row r="88" spans="1:15">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C88" s="10"/>
@@ -4069,7 +4264,7 @@
     <row r="89" spans="1:15">
       <c r="A89" s="4"/>
       <c r="B89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C89" s="10"/>
@@ -4089,7 +4284,7 @@
     <row r="90" spans="1:15">
       <c r="A90" s="4"/>
       <c r="B90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="C90" s="10"/>
@@ -4109,7 +4304,7 @@
     <row r="91" spans="1:15">
       <c r="A91" s="4"/>
       <c r="B91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="C91" s="10"/>
@@ -4129,7 +4324,7 @@
     <row r="92" spans="1:15">
       <c r="A92" s="4"/>
       <c r="B92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C92" s="10"/>
@@ -4149,7 +4344,7 @@
     <row r="93" spans="1:15">
       <c r="A93" s="4"/>
       <c r="B93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="C93" s="10"/>
@@ -4169,7 +4364,7 @@
     <row r="94" spans="1:15">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C94" s="10"/>
@@ -4189,7 +4384,7 @@
     <row r="95" spans="1:15">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="C95" s="10"/>
@@ -4209,7 +4404,7 @@
     <row r="96" spans="1:15">
       <c r="A96" s="4"/>
       <c r="B96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B96:B129" si="6">ROW()-4</f>
         <v>92</v>
       </c>
       <c r="C96" s="10"/>
@@ -4686,6 +4881,206 @@
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
     </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="45"/>
+      <c r="M120" s="44"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="44"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="45"/>
+      <c r="M122" s="44"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="44"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="44"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="44"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="45"/>
+      <c r="M126" s="44"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="45"/>
+      <c r="M127" s="44"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="44"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
   <phoneticPr fontId="2"/>
@@ -4699,11 +5094,19 @@
     <hyperlink ref="C13:C14" location="'結合テスト'!B8" display="=$B$8" xr:uid="{1B1695FD-53DC-4AD4-932F-596E2D150184}"/>
     <hyperlink ref="C15" location="'結合テスト'!B9" display="=$B$9" xr:uid="{8BE58A39-51A6-4650-B1AB-DA1BCA6E205E}"/>
     <hyperlink ref="C16:C18" location="'結合テスト'!B9" display="=$B$9" xr:uid="{5060B7E6-8181-4395-8776-11339F300A8B}"/>
-    <hyperlink ref="C22" location="'結合テスト'!B5" display="=$B$5" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
-    <hyperlink ref="C25" location="'結合テスト'!B8" display="=$B$8" xr:uid="{E2C4ED7F-E2DF-4422-9061-B621F28284FE}"/>
-    <hyperlink ref="C28:C31" location="'結合テスト'!B8" display="=$B$8" xr:uid="{DF11A8E2-DA1D-4B6F-A3B9-E1463800C0CF}"/>
-    <hyperlink ref="C23" location="'結合テスト'!B7" display="=$B$7" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
-    <hyperlink ref="C24" location="'結合テスト'!B9" display="=$B$9" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
+    <hyperlink ref="C35" location="'結合テスト'!B8" display="=$B$8" xr:uid="{E2C4ED7F-E2DF-4422-9061-B621F28284FE}"/>
+    <hyperlink ref="C38:C41" location="'結合テスト'!B8" display="=$B$8" xr:uid="{DF11A8E2-DA1D-4B6F-A3B9-E1463800C0CF}"/>
+    <hyperlink ref="C33" location="'結合テスト'!B7" display="=$B$7" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
+    <hyperlink ref="C34" location="'結合テスト'!B9" display="=$B$9" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
+    <hyperlink ref="C32" location="'結合テスト'!B5" display="=$B$5" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
+    <hyperlink ref="C24" location="'結合テスト'!B20" display="=$B$20" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
+    <hyperlink ref="C25" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
+    <hyperlink ref="C26" location="'結合テスト'!B24" display="=$B$24" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
+    <hyperlink ref="C29" location="'結合テスト'!B24" display="=$B$24" xr:uid="{9A0F0743-5D46-4D5F-ABB6-FBD8EBE02F3D}"/>
+    <hyperlink ref="C27" location="'結合テスト'!B24" display="=$B$24" xr:uid="{126EDBB7-714C-4051-BFE9-FBAFFD9DFD70}"/>
+    <hyperlink ref="C28" location="'結合テスト'!B24" display="=$B$24" xr:uid="{65977294-FE44-47AE-8B5A-B5EF662D07B5}"/>
+    <hyperlink ref="C30" location="'結合テスト'!B24" display="=$B$24" xr:uid="{F659F021-5182-4F65-9FFA-807A8B7C4FB9}"/>
+    <hyperlink ref="C31" location="'結合テスト'!B24" display="=$B$24" xr:uid="{E23328DC-8803-4E77-8D80-123ADB5AA88B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4743,63 +5146,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E2" s="25">
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H2" s="25">
         <v>0</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K2" s="25">
         <v>0</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -4807,31 +5210,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H3" s="26">
         <v>1</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K3" s="27">
         <v>1</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="N3" s="27">
         <v>1</v>
@@ -4839,13 +5242,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H4" s="26">
         <v>2</v>
@@ -4853,13 +5256,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H5" s="26">
         <v>3</v>
@@ -4867,13 +5270,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H6" s="26">
         <v>4</v>
@@ -4881,13 +5284,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H7" s="26">
         <v>5</v>
@@ -4895,13 +5298,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H8" s="26">
         <v>6</v>
@@ -4909,13 +5312,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H9" s="26">
         <v>7</v>
@@ -4923,13 +5326,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H10" s="26">
         <v>8</v>
@@ -4937,13 +5340,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H11" s="26">
         <v>9</v>
@@ -4951,13 +5354,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H12" s="26">
         <v>10</v>
@@ -4965,13 +5368,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H13" s="26">
         <v>11</v>
@@ -4979,13 +5382,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
@@ -4993,13 +5396,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H15" s="26">
         <v>13</v>
@@ -5007,13 +5410,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H16" s="26">
         <v>14</v>
@@ -5021,7 +5424,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="31" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H17" s="26">
         <v>15</v>
@@ -5029,7 +5432,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="31" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H18" s="26">
         <v>16</v>
@@ -5037,7 +5440,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="31" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H19" s="26">
         <v>17</v>
@@ -5045,7 +5448,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="31" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H20" s="26">
         <v>18</v>
@@ -5053,7 +5456,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="31" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H21" s="26">
         <v>19</v>
@@ -5061,7 +5464,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="31" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H22" s="26">
         <v>20</v>
@@ -5069,7 +5472,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="31" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H23" s="26">
         <v>21</v>
@@ -5077,7 +5480,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H24" s="26">
         <v>22</v>
@@ -5085,7 +5488,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="31" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H25" s="26">
         <v>23</v>
@@ -5093,7 +5496,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="31" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H26" s="26">
         <v>24</v>
@@ -5101,7 +5504,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="31" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H27" s="26">
         <v>25</v>
@@ -5109,7 +5512,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="31" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H28" s="26">
         <v>26</v>
@@ -5117,7 +5520,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="31" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H29" s="26">
         <v>27</v>
@@ -5125,7 +5528,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="31" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H30" s="26">
         <v>28</v>
@@ -5133,7 +5536,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="31" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H31" s="26">
         <v>29</v>
@@ -5141,7 +5544,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="31" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H32" s="26">
         <v>30</v>
@@ -5149,7 +5552,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="31" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H33" s="26">
         <v>31</v>
@@ -5157,7 +5560,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="31" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H34" s="26">
         <v>32</v>
@@ -5165,7 +5568,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="31" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H35" s="26">
         <v>33</v>
@@ -5173,7 +5576,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="31" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H36" s="26">
         <v>34</v>
@@ -5181,7 +5584,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="31" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H37" s="26">
         <v>35</v>
@@ -5189,7 +5592,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="31" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H38" s="26">
         <v>36</v>
@@ -5197,7 +5600,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="31" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H39" s="26">
         <v>37</v>
@@ -5205,7 +5608,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="31" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H40" s="26">
         <v>38</v>
@@ -5213,7 +5616,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="31" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H41" s="26">
         <v>39</v>
@@ -5221,7 +5624,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="31" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H42" s="26">
         <v>40</v>
@@ -5229,7 +5632,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="31" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H43" s="26">
         <v>41</v>
@@ -5237,7 +5640,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="31" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H44" s="26">
         <v>42</v>
@@ -5245,7 +5648,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="31" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H45" s="26">
         <v>43</v>
@@ -5253,7 +5656,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="31" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H46" s="26">
         <v>44</v>
@@ -5261,7 +5664,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="31" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H47" s="26">
         <v>45</v>
@@ -5269,7 +5672,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="32" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H48" s="27">
         <v>46</v>

--- a/test_case/integration-test-case_v3.xlsx
+++ b/test_case/integration-test-case_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B310FE44-C6A5-4E2B-8532-D52EBF913160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{656D3738-B6AC-4704-BAD1-1C3F6CFEB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="マスタ" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$B$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="223">
   <si>
     <t>ver</t>
   </si>
@@ -222,69 +222,6 @@
   </si>
   <si>
     <t>一覧画面から登録画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>一覧画面から削除画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>1.アカウントが一覧で表示されている一番上の行の【削除】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>削除画面が表示される</t>
-  </si>
-  <si>
-    <t>一覧画面から更新画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>1.アカウントが一覧で表示されている一番上の行の【更新】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>更新画面が表示される</t>
-  </si>
-  <si>
-    <t>削除画面</t>
-  </si>
-  <si>
-    <t>削除画面から一覧画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>削除画面から削除確認画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>1.【確認する】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>削除確認画面が表示される</t>
-  </si>
-  <si>
-    <t>削除確認画面</t>
-  </si>
-  <si>
-    <t>削除確認画面から削除完了画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>1.【削除する】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>削除完了画面が表示される</t>
-  </si>
-  <si>
-    <t>削除確認画面から削除画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>削除確認画面から一覧画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>削除確認画面から登録画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>削除完了画面</t>
-  </si>
-  <si>
-    <t>削除完了画面からTOP画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>削除完了画面から一覧画面へ遷移できる</t>
   </si>
   <si>
     <t>入力データの保持</t>
@@ -519,6 +456,92 @@
   </si>
   <si>
     <t>呼び出したデータの操作列右側へ【削除】ボタンが表示される</t>
+  </si>
+  <si>
+    <t>一覧画面から削除画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.アカウントが一覧で表示されている一番上の行の【削除】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除画面が表示される</t>
+  </si>
+  <si>
+    <t>削除画面</t>
+  </si>
+  <si>
+    <t>削除画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>呼び出したデータの情報が表示される</t>
+  </si>
+  <si>
+    <t>1.テストID34でクリックした行のIDを目視する
+2.削除画面に表示されたアカウント情報を目視する
+3.DBで、手順1で確認したIDのアカウント情報を目視する</t>
+  </si>
+  <si>
+    <t>テストID34でクリックした行のIDのアカウント情報がDBから呼び出されて表示される</t>
+  </si>
+  <si>
+    <t>削除画面から削除確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.【確認する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除確認画面が表示される</t>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+  </si>
+  <si>
+    <t>削除確認画面から削除画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>テストID34と同じアカウント情報が表示される</t>
+  </si>
+  <si>
+    <t>削除確認画面から削除完了画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.【削除する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除完了画面が表示される</t>
+  </si>
+  <si>
+    <t>DBのデータを編集する</t>
+  </si>
+  <si>
+    <t>削除完了画面</t>
+  </si>
+  <si>
+    <t>呼び出しているデータの編集ができる</t>
+  </si>
+  <si>
+    <t>テストID34でクリックした行のアカウントの「delete_flag」が「1」に変更される</t>
+  </si>
+  <si>
+    <t>削除完了画面からTOP画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除確認画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除確認画面から登録画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>削除完了画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>一覧画面から更新画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.アカウントが一覧で表示されている一番上の行の【更新】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新画面が表示される</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -1532,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1661,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B38" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B51" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="10"/>
@@ -2155,7 +2178,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="36.75">
+    <row r="17" spans="1:16" ht="36.75">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2200,7 +2223,7 @@
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="36.75">
+    <row r="18" spans="1:16" ht="36.75">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -2245,7 +2268,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="36.75">
+    <row r="19" spans="1:16" ht="36.75">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -2287,440 +2310,563 @@
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:15" ht="36.75">
+    <row r="20" spans="1:16" ht="73.5">
       <c r="A20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="48">
+        <f>$B$5</f>
+        <v>1</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="G20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="H20" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="36.75">
+    <row r="21" spans="1:16" ht="55.5">
       <c r="A21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="48">
+        <f>$B$7</f>
+        <v>3</v>
+      </c>
       <c r="D21" s="13" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="H21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="36.75">
+    <row r="22" spans="1:16" ht="73.5">
       <c r="A22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="48">
+        <f>$B$9</f>
+        <v>5</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="G22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="43">
+        <v>45037</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
     </row>
-    <row r="23" spans="1:15" ht="36.75">
+    <row r="23" spans="1:16" ht="275.25">
       <c r="A23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="48">
+        <f>$B$8</f>
+        <v>4</v>
+      </c>
       <c r="D23" s="13" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
     </row>
-    <row r="24" spans="1:15" ht="36.75">
+    <row r="24" spans="1:16" ht="256.5">
       <c r="A24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="48">
-        <f>$B$20</f>
-        <v>16</v>
-      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="13" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-    </row>
-    <row r="25" spans="1:15" ht="36.75">
+        <v>66</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="43">
+        <v>45037</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="256.5">
       <c r="A25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="48">
-        <f>$B$24</f>
-        <v>20</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="13" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-    </row>
-    <row r="26" spans="1:15" ht="36.75">
+        <v>71</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+    </row>
+    <row r="26" spans="1:16" ht="55.5">
       <c r="A26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C26" s="48">
-        <f>$B$24</f>
-        <v>20</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="C26:C29" si="4">$B$8</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" ht="36.75">
+      <c r="J26" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="73.5">
       <c r="A27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B27:B94" si="5">ROW()-4</f>
         <v>23</v>
       </c>
       <c r="C27" s="48">
-        <f>$B$24</f>
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
     </row>
-    <row r="28" spans="1:15" ht="36.75">
+    <row r="28" spans="1:16" ht="55.5">
       <c r="A28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C28" s="48">
-        <f>$B$24</f>
-        <v>20</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
     </row>
-    <row r="29" spans="1:15" ht="36.75">
+    <row r="29" spans="1:16" ht="36.75">
       <c r="A29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C29" s="48">
-        <f>$B$25</f>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="43">
+        <v>45033</v>
+      </c>
+      <c r="M29" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
     </row>
-    <row r="30" spans="1:15" ht="36.75">
+    <row r="30" spans="1:16" ht="55.5">
       <c r="A30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="C30" s="48">
-        <f>$B$25</f>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M30" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
     </row>
-    <row r="31" spans="1:15" ht="36.75">
+    <row r="31" spans="1:16" ht="92.25">
       <c r="A31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="C31" s="48">
-        <f>$B$25</f>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="43">
+        <v>45056</v>
+      </c>
+      <c r="M31" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
     </row>
-    <row r="32" spans="1:15" ht="73.5">
+    <row r="32" spans="1:16" ht="92.25">
       <c r="A32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="C32" s="48">
-        <f>$B$5</f>
-        <v>1</v>
-      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>20</v>
@@ -2732,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="43">
-        <v>45033</v>
+        <v>45056</v>
       </c>
       <c r="M32" s="44" t="s">
         <v>21</v>
@@ -2740,32 +2886,29 @@
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
     </row>
-    <row r="33" spans="1:16" ht="55.5">
+    <row r="33" spans="1:15" ht="92.25">
       <c r="A33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="C33" s="48">
-        <f>$B$7</f>
-        <v>3</v>
-      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>20</v>
@@ -2777,7 +2920,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="43">
-        <v>45033</v>
+        <v>45056</v>
       </c>
       <c r="M33" s="44" t="s">
         <v>21</v>
@@ -2785,32 +2928,29 @@
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
     </row>
-    <row r="34" spans="1:16" ht="73.5">
+    <row r="34" spans="1:15" ht="73.5">
       <c r="A34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="C34" s="48">
-        <f>$B$9</f>
-        <v>5</v>
-      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>20</v>
@@ -2822,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="43">
-        <v>45037</v>
+        <v>45061</v>
       </c>
       <c r="M34" s="44" t="s">
         <v>21</v>
@@ -2830,32 +2970,29 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
     </row>
-    <row r="35" spans="1:16" ht="275.25">
+    <row r="35" spans="1:15" ht="36.75">
       <c r="A35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="C35" s="48">
-        <f>$B$8</f>
-        <v>4</v>
-      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>20</v>
@@ -2867,7 +3004,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="43">
-        <v>45033</v>
+        <v>45056</v>
       </c>
       <c r="M35" s="44" t="s">
         <v>21</v>
@@ -2875,78 +3012,71 @@
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
     </row>
-    <row r="36" spans="1:16" ht="256.5">
+    <row r="36" spans="1:15" ht="55.5">
       <c r="A36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L36" s="43">
-        <v>45037</v>
+        <v>45058</v>
       </c>
       <c r="M36" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="P36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="256.5">
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" ht="55.5">
       <c r="A37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>20</v>
@@ -2958,577 +3088,504 @@
         <v>20</v>
       </c>
       <c r="L37" s="43">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="M37" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-    </row>
-    <row r="38" spans="1:16" ht="55.5">
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+    </row>
+    <row r="38" spans="1:15" ht="36.75">
       <c r="A38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="48">
-        <f t="shared" ref="C38:C41" si="4">$B$8</f>
-        <v>4</v>
-      </c>
-      <c r="D38" s="13"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E38" s="13" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="O38" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="P38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="73.5">
+        <v>108</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="1:15" ht="36.75">
       <c r="A39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" ref="B39:B95" si="5">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="48">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E39" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M39" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
     </row>
-    <row r="40" spans="1:16" ht="55.5">
+    <row r="40" spans="1:15" ht="36.75">
       <c r="A40" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="48">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E40" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M40" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
     </row>
-    <row r="41" spans="1:16" ht="36.75">
+    <row r="41" spans="1:15" ht="55.5">
       <c r="A41" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C41" s="48">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D41" s="13"/>
+        <f>$B$38</f>
+        <v>34</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="E41" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="43">
-        <v>45033</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="44"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
     </row>
-    <row r="42" spans="1:16" ht="55.5">
+    <row r="42" spans="1:15" ht="36.75">
       <c r="A42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="48">
+        <f>$B$41</f>
+        <v>37</v>
+      </c>
       <c r="D42" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
     </row>
-    <row r="43" spans="1:16" ht="92.25">
+    <row r="43" spans="1:15" ht="36.75">
       <c r="A43" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="48">
+        <f>$B$42</f>
+        <v>38</v>
+      </c>
       <c r="D43" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M43" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
     </row>
-    <row r="44" spans="1:16" ht="92.25">
+    <row r="44" spans="1:15" ht="36.75">
       <c r="A44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="48">
+        <f>$B$42</f>
+        <v>38</v>
+      </c>
       <c r="D44" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M44" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="44"/>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
     </row>
-    <row r="45" spans="1:16" ht="92.25">
+    <row r="45" spans="1:15" ht="55.5">
       <c r="A45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="48">
+        <f>$B$44</f>
+        <v>40</v>
+      </c>
       <c r="D45" s="13" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M45" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="44"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
     </row>
-    <row r="46" spans="1:16" ht="73.5">
+    <row r="46" spans="1:15" ht="36.75">
       <c r="A46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="48">
+        <f>$B$44</f>
+        <v>40</v>
+      </c>
       <c r="D46" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="43">
-        <v>45061</v>
-      </c>
-      <c r="M46" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="44"/>
       <c r="N46" s="36"/>
       <c r="O46" s="36"/>
     </row>
-    <row r="47" spans="1:16" ht="36.75">
+    <row r="47" spans="1:15" ht="36.75">
       <c r="A47" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="48">
+        <f>$B$42</f>
+        <v>38</v>
+      </c>
       <c r="D47" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="43">
-        <v>45056</v>
-      </c>
-      <c r="M47" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
     </row>
-    <row r="48" spans="1:16" ht="55.5">
+    <row r="48" spans="1:15" ht="36.75">
       <c r="A48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="48">
+        <f>$B$42</f>
+        <v>38</v>
+      </c>
       <c r="D48" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="43">
-        <v>45058</v>
-      </c>
-      <c r="M48" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
     </row>
-    <row r="49" spans="1:15" ht="55.5">
+    <row r="49" spans="1:15" ht="36.75">
       <c r="A49" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="48">
+        <f>$B$44</f>
+        <v>40</v>
+      </c>
       <c r="D49" s="13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="43">
-        <v>45058</v>
-      </c>
-      <c r="M49" s="44" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="44"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="4"/>
+    <row r="50" spans="1:15" ht="36.75">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
       <c r="B50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="41"/>
+      <c r="C50" s="48">
+        <f>$B$44</f>
+        <v>40</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="I50" s="35"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="45"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="43"/>
       <c r="M50" s="44"/>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="4"/>
+    <row r="51" spans="1:15" ht="36.75">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
       <c r="B51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="41"/>
+      <c r="D51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="I51" s="35"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="45"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="44"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:15" ht="36.75">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
       <c r="B52" s="4">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="E52" s="13"/>
       <c r="F52" s="14"/>
       <c r="G52" s="5"/>
@@ -4384,7 +4441,7 @@
     <row r="95" spans="1:15">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B95:B128" si="6">ROW()-4</f>
         <v>91</v>
       </c>
       <c r="C95" s="10"/>
@@ -4404,7 +4461,7 @@
     <row r="96" spans="1:15">
       <c r="A96" s="4"/>
       <c r="B96" s="4">
-        <f t="shared" ref="B96:B129" si="6">ROW()-4</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C96" s="10"/>
@@ -5061,28 +5118,8 @@
       <c r="N128" s="36"/>
       <c r="O128" s="36"/>
     </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4">
-        <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="44"/>
-      <c r="N129" s="36"/>
-      <c r="O129" s="36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B4:J4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <autoFilter ref="A4:P4" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:F4" xr:uid="{9DCF507F-0535-49AB-B2CD-7905C6326998}"/>
@@ -5094,19 +5131,21 @@
     <hyperlink ref="C13:C14" location="'結合テスト'!B8" display="=$B$8" xr:uid="{1B1695FD-53DC-4AD4-932F-596E2D150184}"/>
     <hyperlink ref="C15" location="'結合テスト'!B9" display="=$B$9" xr:uid="{8BE58A39-51A6-4650-B1AB-DA1BCA6E205E}"/>
     <hyperlink ref="C16:C18" location="'結合テスト'!B9" display="=$B$9" xr:uid="{5060B7E6-8181-4395-8776-11339F300A8B}"/>
-    <hyperlink ref="C35" location="'結合テスト'!B8" display="=$B$8" xr:uid="{E2C4ED7F-E2DF-4422-9061-B621F28284FE}"/>
-    <hyperlink ref="C38:C41" location="'結合テスト'!B8" display="=$B$8" xr:uid="{DF11A8E2-DA1D-4B6F-A3B9-E1463800C0CF}"/>
-    <hyperlink ref="C33" location="'結合テスト'!B7" display="=$B$7" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
-    <hyperlink ref="C34" location="'結合テスト'!B9" display="=$B$9" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
-    <hyperlink ref="C32" location="'結合テスト'!B5" display="=$B$5" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
-    <hyperlink ref="C24" location="'結合テスト'!B20" display="=$B$20" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
-    <hyperlink ref="C25" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
-    <hyperlink ref="C26" location="'結合テスト'!B24" display="=$B$24" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
-    <hyperlink ref="C29" location="'結合テスト'!B24" display="=$B$24" xr:uid="{9A0F0743-5D46-4D5F-ABB6-FBD8EBE02F3D}"/>
-    <hyperlink ref="C27" location="'結合テスト'!B24" display="=$B$24" xr:uid="{126EDBB7-714C-4051-BFE9-FBAFFD9DFD70}"/>
-    <hyperlink ref="C28" location="'結合テスト'!B24" display="=$B$24" xr:uid="{65977294-FE44-47AE-8B5A-B5EF662D07B5}"/>
-    <hyperlink ref="C30" location="'結合テスト'!B24" display="=$B$24" xr:uid="{F659F021-5182-4F65-9FFA-807A8B7C4FB9}"/>
-    <hyperlink ref="C31" location="'結合テスト'!B24" display="=$B$24" xr:uid="{E23328DC-8803-4E77-8D80-123ADB5AA88B}"/>
+    <hyperlink ref="C23" location="'結合テスト'!B8" display="=$B$8" xr:uid="{E2C4ED7F-E2DF-4422-9061-B621F28284FE}"/>
+    <hyperlink ref="C26:C29" location="'結合テスト'!B8" display="=$B$8" xr:uid="{DF11A8E2-DA1D-4B6F-A3B9-E1463800C0CF}"/>
+    <hyperlink ref="C21" location="'結合テスト'!B7" display="=$B$7" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
+    <hyperlink ref="C22" location="'結合テスト'!B9" display="=$B$9" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
+    <hyperlink ref="C20" location="'結合テスト'!B5" display="=$B$5" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
+    <hyperlink ref="C42" location="'結合テスト'!B20" display="=$B$20" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
+    <hyperlink ref="C44" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
+    <hyperlink ref="C43" location="'結合テスト'!B24" display="=$B$24" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
+    <hyperlink ref="C46" location="'結合テスト'!B24" display="=$B$24" xr:uid="{9A0F0743-5D46-4D5F-ABB6-FBD8EBE02F3D}"/>
+    <hyperlink ref="C47" location="'結合テスト'!B24" display="=$B$24" xr:uid="{126EDBB7-714C-4051-BFE9-FBAFFD9DFD70}"/>
+    <hyperlink ref="C48" location="'結合テスト'!B24" display="=$B$24" xr:uid="{65977294-FE44-47AE-8B5A-B5EF662D07B5}"/>
+    <hyperlink ref="C49" location="'結合テスト'!B24" display="=$B$24" xr:uid="{F659F021-5182-4F65-9FFA-807A8B7C4FB9}"/>
+    <hyperlink ref="C50" location="'結合テスト'!B24" display="=$B$24" xr:uid="{E23328DC-8803-4E77-8D80-123ADB5AA88B}"/>
+    <hyperlink ref="C41" location="'結合テスト'!B20" display="=$B$20" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
+    <hyperlink ref="C45" location="'結合テスト'!B50" display="=$B$50" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5146,63 +5185,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E2" s="25">
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H2" s="25">
         <v>0</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K2" s="25">
         <v>0</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -5210,31 +5249,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H3" s="26">
         <v>1</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K3" s="27">
         <v>1</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N3" s="27">
         <v>1</v>
@@ -5242,13 +5281,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H4" s="26">
         <v>2</v>
@@ -5256,13 +5295,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H5" s="26">
         <v>3</v>
@@ -5270,13 +5309,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H6" s="26">
         <v>4</v>
@@ -5284,13 +5323,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H7" s="26">
         <v>5</v>
@@ -5298,13 +5337,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H8" s="26">
         <v>6</v>
@@ -5312,13 +5351,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H9" s="26">
         <v>7</v>
@@ -5326,13 +5365,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="16" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H10" s="26">
         <v>8</v>
@@ -5340,13 +5379,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H11" s="26">
         <v>9</v>
@@ -5354,13 +5393,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H12" s="26">
         <v>10</v>
@@ -5368,13 +5407,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H13" s="26">
         <v>11</v>
@@ -5382,13 +5421,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
@@ -5396,13 +5435,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H15" s="26">
         <v>13</v>
@@ -5410,13 +5449,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H16" s="26">
         <v>14</v>
@@ -5424,7 +5463,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="31" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H17" s="26">
         <v>15</v>
@@ -5432,7 +5471,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="31" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H18" s="26">
         <v>16</v>
@@ -5440,7 +5479,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="31" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H19" s="26">
         <v>17</v>
@@ -5448,7 +5487,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="31" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H20" s="26">
         <v>18</v>
@@ -5456,7 +5495,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="31" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H21" s="26">
         <v>19</v>
@@ -5464,7 +5503,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="31" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H22" s="26">
         <v>20</v>
@@ -5472,7 +5511,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="31" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H23" s="26">
         <v>21</v>
@@ -5480,7 +5519,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="31" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H24" s="26">
         <v>22</v>
@@ -5488,7 +5527,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="31" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H25" s="26">
         <v>23</v>
@@ -5496,7 +5535,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="31" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H26" s="26">
         <v>24</v>
@@ -5504,7 +5543,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="31" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H27" s="26">
         <v>25</v>
@@ -5512,7 +5551,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="31" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H28" s="26">
         <v>26</v>
@@ -5520,7 +5559,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="31" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H29" s="26">
         <v>27</v>
@@ -5528,7 +5567,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H30" s="26">
         <v>28</v>
@@ -5536,7 +5575,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H31" s="26">
         <v>29</v>
@@ -5544,7 +5583,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H32" s="26">
         <v>30</v>
@@ -5552,7 +5591,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="31" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H33" s="26">
         <v>31</v>
@@ -5560,7 +5599,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="31" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H34" s="26">
         <v>32</v>
@@ -5568,7 +5607,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H35" s="26">
         <v>33</v>
@@ -5576,7 +5615,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H36" s="26">
         <v>34</v>
@@ -5584,7 +5623,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="31" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H37" s="26">
         <v>35</v>
@@ -5592,7 +5631,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="31" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H38" s="26">
         <v>36</v>
@@ -5600,7 +5639,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="31" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H39" s="26">
         <v>37</v>
@@ -5608,7 +5647,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="31" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H40" s="26">
         <v>38</v>
@@ -5616,7 +5655,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H41" s="26">
         <v>39</v>
@@ -5624,7 +5663,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="31" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H42" s="26">
         <v>40</v>
@@ -5632,7 +5671,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="31" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H43" s="26">
         <v>41</v>
@@ -5640,7 +5679,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="31" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H44" s="26">
         <v>42</v>
@@ -5648,7 +5687,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="31" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H45" s="26">
         <v>43</v>
@@ -5656,7 +5695,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="31" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H46" s="26">
         <v>44</v>
@@ -5664,7 +5703,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="31" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H47" s="26">
         <v>45</v>
@@ -5672,7 +5711,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="32" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H48" s="27">
         <v>46</v>

--- a/test_case/integration-test-case_v3.xlsx
+++ b/test_case/integration-test-case_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656D3738-B6AC-4704-BAD1-1C3F6CFEB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE46BE6-57C8-4169-AC82-5E4D3599F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="263">
   <si>
     <t>ver</t>
   </si>
@@ -461,7 +461,7 @@
     <t>一覧画面から削除画面へ遷移できる</t>
   </si>
   <si>
-    <t>1.アカウントが一覧で表示されている一番上の行の【削除】ボタンをクリックする</t>
+    <t>1.アカウントが一覧で表示されているいずれかのアカウントの【削除】ボタンをクリックする</t>
   </si>
   <si>
     <t>削除画面が表示される</t>
@@ -520,7 +520,7 @@
     <t>呼び出しているデータの編集ができる</t>
   </si>
   <si>
-    <t>テストID34でクリックした行のアカウントの「delete_flag」が「1」に変更される</t>
+    <t>テストID34でクリックした行のアカウントのDBカラム「delete_flag」が「1」に変更される</t>
   </si>
   <si>
     <t>削除完了画面からTOP画面へ遷移できる</t>
@@ -538,10 +538,166 @@
     <t>一覧画面から更新画面へ遷移できる</t>
   </si>
   <si>
-    <t>1.アカウントが一覧で表示されている一番上の行の【更新】ボタンをクリックする</t>
+    <t>1.アカウントが一覧で表示されているいずれかのアカウントの【更新】ボタンをクリックする</t>
   </si>
   <si>
     <t>更新画面が表示される</t>
+  </si>
+  <si>
+    <t>更新画面</t>
+  </si>
+  <si>
+    <t>DBカラム「family_name」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「名前（姓）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「family_name」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「名前（姓）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「family_name」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「last_name」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「名前（名）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「last_name」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「名前（名）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「last_name」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「family_name_kana」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「カナ（姓）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「family_name_kana」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「カナ（名）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「family_name_kana」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「last_name_kana」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「カナ（名）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「last_name_kana」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「カナ（姓）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「last_name_kana」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「mail」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「メールアドレス」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「mail」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「メールアドレス」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「mail」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「password」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「パスワード」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「password」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「パスワード」の入力フォームは空欄で表示される</t>
+  </si>
+  <si>
+    <t>DBカラム「gender」の値に対応する文字が選択されている</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「性別」で選択されているテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「gender」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「性別」で選択されているテキストと
+テストID47でクリックした行のIDのDBカラム「gender」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「郵便番号」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「郵便番号」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「postal_code」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「郵便番号」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「postal_code」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「住所（都道府県）」の値に対応する文字が選択されている</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「住所（都道府県）」で選択されているテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「prefecture」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「住所（都道府県）」で選択されているテキストと
+テストID47でクリックした行のIDのDBカラム「prefecture」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「住所（市区町村）」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「住所（市区町村）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「address_1」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「住所（市区町村）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「address_1」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「住所（番地）」の入力フォームへ表示されたテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「address_2」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「住所（番地）」の入力フォームへ表示されたテキストと
+テストID47でクリックした行のIDのDBカラム「address_2」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「アカウント権限」の値に対応する文字が選択されている</t>
+  </si>
+  <si>
+    <t>1.テストID47でクリックした行のIDを目視する
+2.更新画面の「アカウント権限」で選択されているテキストを目視する
+3.DBで、手順1で確認したIDのDBカラム「authority」を目視する</t>
+  </si>
+  <si>
+    <t>更新画面の「アカウント権限」で選択されているテキストと
+テストID47でクリックした行のIDのDBカラム「authority」のテキストが一致する</t>
+  </si>
+  <si>
+    <t>DBカラム「アカウント権限」の値に対応する文字が入力フォームへ表示される</t>
+  </si>
+  <si>
+    <t>更新画面から更新確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>更新確認画面が表示される</t>
+  </si>
+  <si>
+    <t>各項目の右側へ、「テストID：47」にて入力されていたテキストが表示される
+パスワードは空欄であれば「変更なし」のテキストが表示される</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -1555,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2636,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" ref="B27:B94" si="5">ROW()-4</f>
+        <f t="shared" ref="B27:B93" si="5">ROW()-4</f>
         <v>23</v>
       </c>
       <c r="C27" s="48">
@@ -2760,7 +2916,7 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
     </row>
-    <row r="30" spans="1:16" ht="55.5">
+    <row r="30" spans="1:16" ht="36.75">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -3574,7 +3730,7 @@
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
     </row>
-    <row r="52" spans="1:15" ht="36.75">
+    <row r="52" spans="1:15" ht="92.25">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -3582,14 +3738,25 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
       <c r="D52" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="41"/>
+      <c r="E52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>139</v>
+      </c>
       <c r="I52" s="35"/>
       <c r="J52" s="37"/>
       <c r="K52" s="36"/>
@@ -3598,18 +3765,33 @@
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="4"/>
+    <row r="53" spans="1:15" ht="92.25">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
       <c r="B53" s="4">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="41"/>
+      <c r="C53" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>142</v>
+      </c>
       <c r="I53" s="35"/>
       <c r="J53" s="37"/>
       <c r="K53" s="36"/>
@@ -3618,18 +3800,33 @@
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:15" ht="92.25">
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
       <c r="B54" s="4">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="41"/>
+      <c r="C54" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="I54" s="35"/>
       <c r="J54" s="37"/>
       <c r="K54" s="36"/>
@@ -3638,18 +3835,33 @@
       <c r="N54" s="36"/>
       <c r="O54" s="36"/>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="4"/>
+    <row r="55" spans="1:15" ht="92.25">
+      <c r="A55" s="4">
+        <v>3</v>
+      </c>
       <c r="B55" s="4">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="41"/>
+      <c r="C55" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>148</v>
+      </c>
       <c r="I55" s="35"/>
       <c r="J55" s="37"/>
       <c r="K55" s="36"/>
@@ -3658,18 +3870,33 @@
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="4"/>
+    <row r="56" spans="1:15" ht="73.5">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
       <c r="B56" s="4">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="41"/>
+      <c r="C56" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>151</v>
+      </c>
       <c r="I56" s="35"/>
       <c r="J56" s="37"/>
       <c r="K56" s="36"/>
@@ -3678,18 +3905,33 @@
       <c r="N56" s="36"/>
       <c r="O56" s="36"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:15" ht="73.5">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
       <c r="B57" s="4">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="41"/>
+      <c r="C57" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>154</v>
+      </c>
       <c r="I57" s="35"/>
       <c r="J57" s="37"/>
       <c r="K57" s="36"/>
@@ -3698,18 +3940,33 @@
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:15" ht="92.25">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
       <c r="B58" s="4">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="41"/>
+      <c r="C58" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>157</v>
+      </c>
       <c r="I58" s="35"/>
       <c r="J58" s="37"/>
       <c r="K58" s="36"/>
@@ -3718,18 +3975,33 @@
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="4"/>
+    <row r="59" spans="1:15" ht="92.25">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
       <c r="B59" s="4">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="41"/>
+      <c r="C59" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>160</v>
+      </c>
       <c r="I59" s="35"/>
       <c r="J59" s="37"/>
       <c r="K59" s="36"/>
@@ -3738,18 +4010,33 @@
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="4"/>
+    <row r="60" spans="1:15" ht="92.25">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
       <c r="B60" s="4">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="41"/>
+      <c r="C60" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>163</v>
+      </c>
       <c r="I60" s="35"/>
       <c r="J60" s="37"/>
       <c r="K60" s="36"/>
@@ -3758,18 +4045,33 @@
       <c r="N60" s="36"/>
       <c r="O60" s="36"/>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:15" ht="92.25">
+      <c r="A61" s="4">
+        <v>3</v>
+      </c>
       <c r="B61" s="4">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="41"/>
+      <c r="C61" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>166</v>
+      </c>
       <c r="I61" s="35"/>
       <c r="J61" s="37"/>
       <c r="K61" s="36"/>
@@ -3778,18 +4080,33 @@
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="4"/>
+    <row r="62" spans="1:15" ht="92.25">
+      <c r="A62" s="4">
+        <v>3</v>
+      </c>
       <c r="B62" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="41"/>
+      <c r="C62" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>168</v>
+      </c>
       <c r="I62" s="35"/>
       <c r="J62" s="37"/>
       <c r="K62" s="36"/>
@@ -3798,18 +4115,33 @@
       <c r="N62" s="36"/>
       <c r="O62" s="36"/>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:15" ht="92.25">
+      <c r="A63" s="4">
+        <v>3</v>
+      </c>
       <c r="B63" s="4">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="41"/>
+      <c r="C63" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>171</v>
+      </c>
       <c r="I63" s="35"/>
       <c r="J63" s="37"/>
       <c r="K63" s="36"/>
@@ -3818,18 +4150,33 @@
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:15" ht="92.25">
+      <c r="A64" s="4">
+        <v>3</v>
+      </c>
       <c r="B64" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="41"/>
+      <c r="C64" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>168</v>
+      </c>
       <c r="I64" s="35"/>
       <c r="J64" s="37"/>
       <c r="K64" s="36"/>
@@ -3838,42 +4185,72 @@
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:15" ht="36.75">
+      <c r="A65" s="4">
+        <v>3</v>
+      </c>
       <c r="B65" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="41"/>
+      <c r="C65" s="48">
+        <f>$B$51</f>
+        <v>47</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>174</v>
+      </c>
       <c r="I65" s="35"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="45"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="43"/>
       <c r="M65" s="44"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:15" ht="73.5">
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
       <c r="B66" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="41"/>
+      <c r="C66" s="48">
+        <f>$B$65</f>
+        <v>61</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>175</v>
+      </c>
       <c r="I66" s="35"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="45"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="43"/>
       <c r="M66" s="44"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
@@ -4421,7 +4798,7 @@
     <row r="94" spans="1:15">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B94:B127" si="6">ROW()-4</f>
         <v>90</v>
       </c>
       <c r="C94" s="10"/>
@@ -4441,7 +4818,7 @@
     <row r="95" spans="1:15">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
-        <f t="shared" ref="B95:B128" si="6">ROW()-4</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="C95" s="10"/>
@@ -5097,26 +5474,6 @@
       <c r="M127" s="44"/>
       <c r="N127" s="36"/>
       <c r="O127" s="36"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4">
-        <f t="shared" si="6"/>
-        <v>124</v>
-      </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="44"/>
-      <c r="N128" s="36"/>
-      <c r="O128" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:P4" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
@@ -5146,6 +5503,21 @@
     <hyperlink ref="C50" location="'結合テスト'!B24" display="=$B$24" xr:uid="{E23328DC-8803-4E77-8D80-123ADB5AA88B}"/>
     <hyperlink ref="C41" location="'結合テスト'!B20" display="=$B$20" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
     <hyperlink ref="C45" location="'結合テスト'!B50" display="=$B$50" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
+    <hyperlink ref="C52" location="'結合テスト'!B51" display="=$B$51" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
+    <hyperlink ref="C53" location="'結合テスト'!B51" display="=$B$51" xr:uid="{4DCFE79F-2AD2-49DC-B539-F63163AC966B}"/>
+    <hyperlink ref="C54" location="'結合テスト'!B51" display="=$B$51" xr:uid="{FFD0C603-CA80-4EEF-A6F6-D60D26B29885}"/>
+    <hyperlink ref="C55" location="'結合テスト'!B51" display="=$B$51" xr:uid="{7E55ACF4-3864-44A4-99EE-C3EA84537DF8}"/>
+    <hyperlink ref="C56" location="'結合テスト'!B51" display="=$B$51" xr:uid="{41523E33-3B03-4A32-BB00-1AEE4F7A586D}"/>
+    <hyperlink ref="C57" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BB4361AB-FF33-4DE0-A033-B87E45AFC03F}"/>
+    <hyperlink ref="C58" location="'結合テスト'!B51" display="=$B$51" xr:uid="{FEFF4063-2891-4F1A-A5BE-E5B8A5912DD5}"/>
+    <hyperlink ref="C59" location="'結合テスト'!B51" display="=$B$51" xr:uid="{7EDF06E4-9258-46D0-A1A0-182B8BFDA6F3}"/>
+    <hyperlink ref="C60" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BBF630A0-B49D-4B11-BF98-C1EDDA66B068}"/>
+    <hyperlink ref="C61" location="'結合テスト'!B51" display="=$B$51" xr:uid="{D58F9457-21B7-4849-BB0B-2BA533B76E76}"/>
+    <hyperlink ref="C62" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BB9AD492-ADB0-47DC-93B6-CB7ACD4E5EE8}"/>
+    <hyperlink ref="C63" location="'結合テスト'!B51" display="=$B$51" xr:uid="{EFC64126-1E8B-4B18-AE92-041EC76B9D2A}"/>
+    <hyperlink ref="C64" location="'結合テスト'!B51" display="=$B$51" xr:uid="{D3D2192B-1357-4D2D-82BB-3AB92F6A08B9}"/>
+    <hyperlink ref="C65" location="'結合テスト'!B51" display="=$B$51" xr:uid="{80B7D5D6-D683-45C5-9941-7A7006EB3FC8}"/>
+    <hyperlink ref="C66" location="'結合テスト'!B65" display="=$B$65" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5185,63 +5557,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="E2" s="25">
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="H2" s="25">
         <v>0</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="K2" s="25">
         <v>0</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -5249,31 +5621,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="16" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="H3" s="26">
         <v>1</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="K3" s="27">
         <v>1</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="N3" s="27">
         <v>1</v>
@@ -5281,13 +5653,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="H4" s="26">
         <v>2</v>
@@ -5295,13 +5667,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H5" s="26">
         <v>3</v>
@@ -5309,13 +5681,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="H6" s="26">
         <v>4</v>
@@ -5323,13 +5695,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="H7" s="26">
         <v>5</v>
@@ -5337,13 +5709,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="H8" s="26">
         <v>6</v>
@@ -5351,13 +5723,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H9" s="26">
         <v>7</v>
@@ -5365,13 +5737,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="16" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H10" s="26">
         <v>8</v>
@@ -5379,13 +5751,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H11" s="26">
         <v>9</v>
@@ -5393,13 +5765,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H12" s="26">
         <v>10</v>
@@ -5407,13 +5779,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="H13" s="26">
         <v>11</v>
@@ -5421,13 +5793,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="16" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
@@ -5435,13 +5807,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="H15" s="26">
         <v>13</v>
@@ -5449,13 +5821,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="H16" s="26">
         <v>14</v>
@@ -5463,7 +5835,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="31" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="H17" s="26">
         <v>15</v>
@@ -5471,7 +5843,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="31" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="H18" s="26">
         <v>16</v>
@@ -5479,7 +5851,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="31" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="H19" s="26">
         <v>17</v>
@@ -5487,7 +5859,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="31" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="H20" s="26">
         <v>18</v>
@@ -5495,7 +5867,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="31" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H21" s="26">
         <v>19</v>
@@ -5503,7 +5875,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="31" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="H22" s="26">
         <v>20</v>
@@ -5511,7 +5883,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="31" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="H23" s="26">
         <v>21</v>
@@ -5519,7 +5891,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="31" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="H24" s="26">
         <v>22</v>
@@ -5527,7 +5899,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="31" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="H25" s="26">
         <v>23</v>
@@ -5535,7 +5907,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="31" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H26" s="26">
         <v>24</v>
@@ -5543,7 +5915,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="31" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="H27" s="26">
         <v>25</v>
@@ -5551,7 +5923,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="31" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H28" s="26">
         <v>26</v>
@@ -5559,7 +5931,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="31" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="H29" s="26">
         <v>27</v>
@@ -5567,7 +5939,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="31" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="H30" s="26">
         <v>28</v>
@@ -5575,7 +5947,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="31" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="H31" s="26">
         <v>29</v>
@@ -5583,7 +5955,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="31" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="H32" s="26">
         <v>30</v>
@@ -5591,7 +5963,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="31" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="H33" s="26">
         <v>31</v>
@@ -5599,7 +5971,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="31" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="H34" s="26">
         <v>32</v>
@@ -5607,7 +5979,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="31" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="H35" s="26">
         <v>33</v>
@@ -5615,7 +5987,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="31" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="H36" s="26">
         <v>34</v>
@@ -5623,7 +5995,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="31" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="H37" s="26">
         <v>35</v>
@@ -5631,7 +6003,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="31" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="H38" s="26">
         <v>36</v>
@@ -5639,7 +6011,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="31" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="H39" s="26">
         <v>37</v>
@@ -5647,7 +6019,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="31" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H40" s="26">
         <v>38</v>
@@ -5655,7 +6027,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="31" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="H41" s="26">
         <v>39</v>
@@ -5663,7 +6035,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="31" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="H42" s="26">
         <v>40</v>
@@ -5671,7 +6043,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="31" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="H43" s="26">
         <v>41</v>
@@ -5679,7 +6051,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="31" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="H44" s="26">
         <v>42</v>
@@ -5687,7 +6059,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="31" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H45" s="26">
         <v>43</v>
@@ -5695,7 +6067,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="31" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="H46" s="26">
         <v>44</v>
@@ -5703,7 +6075,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="31" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="H47" s="26">
         <v>45</v>
@@ -5711,7 +6083,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="32" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="H48" s="27">
         <v>46</v>

--- a/test_case/integration-test-case_v3.xlsx
+++ b/test_case/integration-test-case_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E6239-38CE-4912-B8C2-2957436BB0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BE1615-A2A3-4C1D-A9AB-8C9AD6051CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="306">
   <si>
     <t>ver</t>
   </si>
@@ -467,6 +467,13 @@
     <t>削除画面が表示される</t>
   </si>
   <si>
+    <t>PHP側でdelete_flag=0の場合のみを指定しているので「削除フラグ：無効」のレコードの場合呼び出しできずエラーとなる</t>
+  </si>
+  <si>
+    <t>delete_flag=0でも呼び出すか、
+一覧画面で表示しないようにする</t>
+  </si>
+  <si>
     <t>削除画面</t>
   </si>
   <si>
@@ -728,44 +735,117 @@
     <t>更新確認画面から更新画面へ遷移できる</t>
   </si>
   <si>
+    <t>更新確認画面で表示されていたデータが、更新画面の入力欄へセットされる</t>
+  </si>
+  <si>
+    <t>項目ごとの入力欄へ「テストID：64」にて、表示されていたテキストが表示される</t>
+  </si>
+  <si>
+    <t>更新確認画面から一覧画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>ヘッダー更新してなかった</t>
+  </si>
+  <si>
+    <t>ヘッダー更新する</t>
+  </si>
+  <si>
+    <t>更新確認画面から登録画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>更新確認画面から更新完了画面へ遷移できる</t>
+  </si>
+  <si>
     <t>1.【更新する】ボタンをクリックする</t>
   </si>
   <si>
     <t>更新完了画面が表示される</t>
   </si>
   <si>
-    <t>更新確認画面で表示されていたデータが、更新画面の入力欄へセットされる</t>
-  </si>
-  <si>
-    <t>項目ごとの入力欄へ「テストID：64」にて、表示されていたテキストが表示される</t>
+    <t>テキスト表示</t>
+  </si>
+  <si>
+    <t>更新完了画面</t>
+  </si>
+  <si>
+    <t>レコードの更新が出来たときのテキストが表示される</t>
+  </si>
+  <si>
+    <t>1.更新完了画面で表示されているテキストを目視する</t>
+  </si>
+  <si>
+    <t>「更新完了しました」のテキストが画面中央に大きく表示される</t>
+  </si>
+  <si>
+    <t>更新完了画面からTOP画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>レコードの更新が出来なかったときのテキストが表示される</t>
+  </si>
+  <si>
+    <t>1.XAMPP内、MySQLの【Stop】ボタンをクリックする
+2.【更新する】ボタンをクリックする
+3.更新完了画面のテキストを目視する</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント更新できません。」のテキストが赤字で表示される</t>
+  </si>
+  <si>
+    <t>コメントアウトしてた</t>
+  </si>
+  <si>
+    <t>コメントアウトを戻す</t>
+  </si>
+  <si>
+    <t>呼び出したレコードを更新</t>
+  </si>
+  <si>
+    <t>更新確認画面で表示されていたデータがDB上のIDに応じたレコードに対して更新される</t>
+  </si>
+  <si>
+    <t>1.一覧画面でいずれかのレコードの【更新】ボタンをクリックする
+2.【確認する】ボタンをクリックする
+3.【更新する】ボタンをクリックする
+4.同レコードDBのカラムごとに登録されているテキストを目視する</t>
+  </si>
+  <si>
+    <t>変更せず更新を行ったデータのため、DB上でも変更がなく、DBカラム「update_time」には、更新を行った日時が反映される</t>
+  </si>
+  <si>
+    <t>呼び出しレコードを更新</t>
+  </si>
+  <si>
+    <t>1.一覧画面でいずれかのレコードの【更新】ボタンをクリックする
+2.手順1で【更新】ボタンをクリックしたレコードのDBカラム「password」の文字列を目視する
+3.【確認する】ボタンをクリックする
+4.【更新する】ボタンをクリックする
+5.手順1で【更新】ボタンをクリックしたレコードのDBカラム「password」の文字列を目視する</t>
+  </si>
+  <si>
+    <t>DBカラム「password」の文字列に変化がない</t>
   </si>
   <si>
     <t>呼び出したデータを更新</t>
   </si>
   <si>
-    <t>更新確認画面で表示されていたデータがDB上のIDに応じたレコードに対して更新される</t>
-  </si>
-  <si>
-    <t>1.【更新する】ボタンをクリックする
-2.同レコードDBのカラムごとに登録されているテキストを目視する</t>
-  </si>
-  <si>
-    <t>変更せず更新を行ったデータのため、DB上でも変更がなく、DBカラム「update_time」には、更新を行った日時が反映される</t>
-  </si>
-  <si>
-    <t>1.同レコードのDBのカラム「password」の文字列を目視する
-2.【更新する】ボタンをクリックする
-3.同レコードのDBのカラム「password」の文字列を目視する</t>
-  </si>
-  <si>
-    <t>DBカラム「password」の文字列に変化がない</t>
-  </si>
-  <si>
-    <t>1.【更新する】ボタンをクリックする
-2.DBのカラムごとに登録されているテキストを目視する</t>
-  </si>
-  <si>
-    <t>入力したデータが、以下のカラムへ対応しDBへ登録される
+    <t>1.一覧画面でいずれかのレコードの【更新】ボタンをクリックする
+2.「名前（姓）」の入力フォームへ「更新」を入力する
+3.「名前（名）」の入力フォームへ「確認」を入力する
+4.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+5.「カナ（名）」の入力フォームへ「カクニン」を入力する
+6.「メールアドレス」の入力フォームへ「koushin@mail.com」を入力する
+7.「パスワード」の入力フォームへ、「abc123」を入力する
+8.「性別」のリストから「男性」を選択する
+9.「郵便番号」の入力フォームへ「0123456」を入力する
+10.「住所（都道府県）」のリストから「北海道」を選択する
+11.「住所（市区町村）」の入力フォームへ「旭川市」を入力する
+12.「住所（番地）」の入力フォームへ「2-2-2」を入力する
+13.「アカウント権限」のリストから「管理者」を選択する
+14.【確認する】ボタンをクリックする
+15.【更新する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力したデータが、手順1で選択したレコードに対応したDBカラムへ登録される
 1.「family_name」＝「更新」
 2.「last_name」＝「確認」
 3.「family_name_kana」＝「コウシン」
@@ -779,21 +859,32 @@
 11.「authority」＝「1」</t>
   </si>
   <si>
-    <t>パスワードハッシュ化</t>
-  </si>
-  <si>
-    <t>同じパスワードでもハッシュ化によって異なる文字列となる</t>
-  </si>
-  <si>
-    <t>1.DBカラム「password」を目視する
-2.【更新する】ボタンをクリックする
-3.DBカラム「password」を目視する</t>
-  </si>
-  <si>
-    <t>手順1と手順3ではDBカラム「password」の文字列が異なる</t>
-  </si>
-  <si>
-    <t>DBに更新するレコードに対して、登録した日時が付与される</t>
+    <t>更新前と同じパスワードでもハッシュ化によって異なる文字列となる</t>
+  </si>
+  <si>
+    <t>1.一覧画面でいずれかのレコードの【更新】ボタンをクリックする
+2.手順1で【更新】ボタンをクリックしたレコードのDBカラム「password」の文字列を目視する
+3.「名前（姓）」の入力フォームへ「更新」を入力する
+4.「名前（名）」の入力フォームへ「確認」を入力する
+5.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+6.「カナ（名）」の入力フォームへ「カクニン」を入力する
+7.「メールアドレス」の入力フォームへ「koushin@mail.com」を入力する
+8.「パスワード」の入力フォームへ、「abc123」を入力する
+9.「性別」のリストから「男性」を選択する
+10.「郵便番号」の入力フォームへ「0123456」を入力する
+11.「住所（都道府県）」のリストから「北海道」を選択する
+12.「住所（市区町村）」の入力フォームへ「旭川市」を入力する
+13.「住所（番地）」の入力フォームへ「2-2-2」を入力する
+14.「アカウント権限」のリストから「管理者」を選択する
+15.【確認する】ボタンをクリックする
+16.【更新する】ボタンをクリックする
+17.手順1で【更新】ボタンをクリックしたレコードのDBカラム「password」の文字列を目視する</t>
+  </si>
+  <si>
+    <t>手順2と手順17ではDBカラム「password」の文字列が異なる</t>
+  </si>
+  <si>
+    <t>DBに更新を行うレコードに対して、更新した日時が付与される</t>
   </si>
   <si>
     <t>1.DBの「update_time」カラムの日時を目視する</t>
@@ -1334,7 +1425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,6 +1569,12 @@
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1810,30 +1907,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73:O74"/>
+      <pane ySplit="1" topLeftCell="E63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="46" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="14" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" style="14" customWidth="1"/>
+    <col min="9" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="22.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1873,14 +1971,14 @@
       <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="275.25">
+    <row r="2" spans="1:16" ht="238.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1919,7 +2017,7 @@
       <c r="M2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="35"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="36.75">
@@ -1927,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B72" si="0">ROW()-1</f>
+        <f t="shared" ref="B3:B77" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
@@ -1961,7 +2059,7 @@
       <c r="M3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="36.75">
@@ -2006,7 +2104,7 @@
       <c r="M4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="45"/>
       <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="36.75">
@@ -2051,10 +2149,10 @@
       <c r="M5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="35"/>
+      <c r="N5" s="45"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:16" ht="73.5">
+    <row r="6" spans="1:16" ht="55.5">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2096,7 +2194,7 @@
       <c r="M6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="35"/>
+      <c r="N6" s="45"/>
       <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="36.75">
@@ -2141,7 +2239,7 @@
       <c r="M7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="36.75">
@@ -2186,7 +2284,7 @@
       <c r="M8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="35"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="36.75">
@@ -2231,7 +2329,7 @@
       <c r="M9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="45"/>
       <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="36.75">
@@ -2276,7 +2374,7 @@
       <c r="M10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="45"/>
       <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="36.75">
@@ -2321,7 +2419,7 @@
       <c r="M11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="36.75">
@@ -2366,7 +2464,7 @@
       <c r="M12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="45" t="s">
         <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
@@ -2418,7 +2516,7 @@
       <c r="M13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="36.75">
@@ -2463,7 +2561,7 @@
       <c r="M14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:16" ht="36.75">
@@ -2508,7 +2606,7 @@
       <c r="M15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="35"/>
     </row>
     <row r="16" spans="1:16" ht="36.75">
@@ -2550,10 +2648,10 @@
       <c r="M16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:16" ht="92.25">
+    <row r="17" spans="1:16" ht="73.5">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2595,7 +2693,7 @@
       <c r="M17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:16" ht="55.5">
@@ -2640,10 +2738,10 @@
       <c r="M18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:16" ht="92.25">
+    <row r="19" spans="1:16" ht="73.5">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2685,10 +2783,10 @@
       <c r="M19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:16" ht="330">
+    <row r="20" spans="1:16" ht="275.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2730,10 +2828,10 @@
       <c r="M20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="35"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:16" ht="312">
+    <row r="21" spans="1:16" ht="256.5">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2782,7 +2880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="312">
+    <row r="22" spans="1:16" ht="256.5">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2824,7 +2922,7 @@
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:16" ht="73.5">
+    <row r="23" spans="1:16" ht="55.5">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2836,7 +2934,9 @@
         <f t="shared" ref="C23:C26" si="4">$B$5</f>
         <v>4</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E23" s="12" t="s">
         <v>62</v>
       </c>
@@ -2864,7 +2964,7 @@
       <c r="M23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="45" t="s">
         <v>76</v>
       </c>
       <c r="O23" s="45" t="s">
@@ -2886,7 +2986,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
@@ -2914,7 +3016,7 @@
       <c r="M24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="35"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="35"/>
     </row>
     <row r="25" spans="1:16" ht="55.5">
@@ -2929,7 +3031,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E25" s="12" t="s">
         <v>62</v>
       </c>
@@ -2957,10 +3061,10 @@
       <c r="M25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="35"/>
     </row>
-    <row r="26" spans="1:16" ht="55.5">
+    <row r="26" spans="1:16" ht="36.75">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2972,7 +3076,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" s="12" t="s">
         <v>62</v>
       </c>
@@ -3000,10 +3106,10 @@
       <c r="M26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="35"/>
     </row>
-    <row r="27" spans="1:16" ht="55.5">
+    <row r="27" spans="1:16" ht="36.75">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -3042,7 +3148,7 @@
       <c r="M27" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="92.25">
@@ -3084,7 +3190,7 @@
       <c r="M28" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="35"/>
+      <c r="N28" s="45"/>
       <c r="O28" s="35"/>
     </row>
     <row r="29" spans="1:16" ht="92.25">
@@ -3126,10 +3232,10 @@
       <c r="M29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="35"/>
+      <c r="N29" s="45"/>
       <c r="O29" s="35"/>
     </row>
-    <row r="30" spans="1:16" ht="110.25">
+    <row r="30" spans="1:16" ht="92.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -3168,7 +3274,7 @@
       <c r="M30" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="35"/>
+      <c r="N30" s="45"/>
       <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:16" ht="73.5">
@@ -3210,7 +3316,7 @@
       <c r="M31" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="35"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="36.75">
@@ -3252,7 +3358,7 @@
       <c r="M32" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="35"/>
+      <c r="N32" s="45"/>
       <c r="O32" s="35"/>
     </row>
     <row r="33" spans="1:15" ht="55.5">
@@ -3294,7 +3400,7 @@
       <c r="M33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="35"/>
+      <c r="N33" s="45"/>
       <c r="O33" s="35"/>
     </row>
     <row r="34" spans="1:15" ht="55.5">
@@ -3336,10 +3442,10 @@
       <c r="M34" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="35"/>
+      <c r="N34" s="45"/>
       <c r="O34" s="35"/>
     </row>
-    <row r="35" spans="1:15" ht="36.75">
+    <row r="35" spans="1:15" ht="54">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -3363,13 +3469,27 @@
       <c r="H35" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="I35" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="36.75">
       <c r="A36" s="3">
@@ -3384,10 +3504,10 @@
         <v>15</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>23</v>
@@ -3395,12 +3515,22 @@
       <c r="H36" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="35"/>
+      <c r="I36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="45"/>
       <c r="O36" s="35"/>
     </row>
     <row r="37" spans="1:15" ht="36.75">
@@ -3416,10 +3546,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>23</v>
@@ -3427,12 +3557,22 @@
       <c r="H37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="35"/>
+      <c r="I37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="45"/>
       <c r="O37" s="35"/>
     </row>
     <row r="38" spans="1:15" ht="55.5">
@@ -3451,23 +3591,33 @@
         <v>87</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="45"/>
       <c r="O38" s="35"/>
     </row>
     <row r="39" spans="1:15" ht="36.75">
@@ -3486,23 +3636,33 @@
         <v>15</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="45"/>
       <c r="O39" s="35"/>
     </row>
     <row r="40" spans="1:15" ht="36.75">
@@ -3521,23 +3681,33 @@
         <v>15</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="45"/>
       <c r="O40" s="35"/>
     </row>
     <row r="41" spans="1:15" ht="36.75">
@@ -3556,26 +3726,36 @@
         <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="45"/>
       <c r="O41" s="35"/>
     </row>
-    <row r="42" spans="1:15" ht="73.5">
+    <row r="42" spans="1:15" ht="55.5">
       <c r="A42" s="3">
         <v>3</v>
       </c>
@@ -3588,26 +3768,36 @@
         <v>40</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M42" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="45"/>
       <c r="O42" s="35"/>
     </row>
     <row r="43" spans="1:15" ht="36.75">
@@ -3626,10 +3816,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>39</v>
@@ -3637,12 +3827,22 @@
       <c r="H43" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="35"/>
+      <c r="I43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="45"/>
       <c r="O43" s="35"/>
     </row>
     <row r="44" spans="1:15" ht="36.75">
@@ -3661,10 +3861,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>23</v>
@@ -3672,12 +3872,22 @@
       <c r="H44" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="35"/>
+      <c r="I44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="45"/>
       <c r="O44" s="35"/>
     </row>
     <row r="45" spans="1:15" ht="36.75">
@@ -3696,10 +3906,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>35</v>
@@ -3707,12 +3917,22 @@
       <c r="H45" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="35"/>
+      <c r="I45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M45" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="45"/>
       <c r="O45" s="35"/>
     </row>
     <row r="46" spans="1:15" ht="36.75">
@@ -3731,10 +3951,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>23</v>
@@ -3742,12 +3962,22 @@
       <c r="H46" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="35"/>
+      <c r="I46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="45"/>
       <c r="O46" s="35"/>
     </row>
     <row r="47" spans="1:15" ht="36.75">
@@ -3766,10 +3996,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>35</v>
@@ -3777,12 +4007,22 @@
       <c r="H47" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="35"/>
+      <c r="I47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="45"/>
       <c r="O47" s="35"/>
     </row>
     <row r="48" spans="1:15" ht="36.75">
@@ -3801,20 +4041,30 @@
         <v>51</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="45"/>
       <c r="O48" s="35"/>
     </row>
     <row r="49" spans="1:15" ht="92.25">
@@ -3833,23 +4083,33 @@
         <v>87</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="35"/>
+        <v>141</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="45"/>
       <c r="O49" s="35"/>
     </row>
     <row r="50" spans="1:15" ht="92.25">
@@ -3861,33 +4121,43 @@
         <v>49</v>
       </c>
       <c r="C50" s="47">
-        <f>$B$48</f>
+        <f t="shared" ref="C50:C51" si="5">$B$48</f>
         <v>47</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M50" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="45"/>
       <c r="O50" s="35"/>
     </row>
-    <row r="51" spans="1:15" ht="110.25">
+    <row r="51" spans="1:15" ht="92.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -3896,30 +4166,40 @@
         <v>50</v>
       </c>
       <c r="C51" s="47">
-        <f>$B$48</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="35"/>
+        <v>147</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="45"/>
       <c r="O51" s="35"/>
     </row>
     <row r="52" spans="1:15" ht="92.25">
@@ -3938,26 +4218,36 @@
         <v>87</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="35"/>
+        <v>150</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M52" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="45"/>
       <c r="O52" s="35"/>
     </row>
-    <row r="53" spans="1:15" ht="110.25">
+    <row r="53" spans="1:15" ht="73.5">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -3973,26 +4263,36 @@
         <v>87</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="45"/>
       <c r="O53" s="35"/>
     </row>
-    <row r="54" spans="1:15" ht="92.25">
+    <row r="54" spans="1:15" ht="73.5">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -4008,23 +4308,33 @@
         <v>87</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="45"/>
       <c r="O54" s="35"/>
     </row>
     <row r="55" spans="1:15" ht="92.25">
@@ -4043,23 +4353,33 @@
         <v>87</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="35"/>
+        <v>159</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="45"/>
       <c r="O55" s="35"/>
     </row>
     <row r="56" spans="1:15" ht="92.25">
@@ -4078,23 +4398,33 @@
         <v>87</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="35"/>
+        <v>162</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M56" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="45"/>
       <c r="O56" s="35"/>
     </row>
     <row r="57" spans="1:15" ht="92.25">
@@ -4113,26 +4443,36 @@
         <v>87</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M57" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="45"/>
       <c r="O57" s="35"/>
     </row>
-    <row r="58" spans="1:15" ht="110.25">
+    <row r="58" spans="1:15" ht="92.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -4148,26 +4488,36 @@
         <v>87</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="35"/>
+        <v>168</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M58" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="45"/>
       <c r="O58" s="35"/>
     </row>
-    <row r="59" spans="1:15" ht="110.25">
+    <row r="59" spans="1:15" ht="92.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -4183,23 +4533,33 @@
         <v>87</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M59" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="45"/>
       <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:15" ht="92.25">
@@ -4218,26 +4578,36 @@
         <v>87</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="45"/>
       <c r="O60" s="35"/>
     </row>
-    <row r="61" spans="1:15" ht="110.25">
+    <row r="61" spans="1:15" ht="92.25">
       <c r="A61" s="3">
         <v>3</v>
       </c>
@@ -4253,23 +4623,33 @@
         <v>87</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I61" s="34"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M61" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="45"/>
       <c r="O61" s="35"/>
     </row>
     <row r="62" spans="1:15" ht="36.75">
@@ -4288,26 +4668,36 @@
         <v>15</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="35"/>
+        <v>176</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M62" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="45"/>
       <c r="O62" s="35"/>
     </row>
-    <row r="63" spans="1:15" ht="275.25">
+    <row r="63" spans="1:15" ht="256.5">
       <c r="A63" s="3">
         <v>3</v>
       </c>
@@ -4323,28 +4713,36 @@
         <v>15</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="42"/>
+      <c r="I63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="42">
+        <v>45093</v>
+      </c>
       <c r="M63" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="35"/>
+      <c r="N63" s="45"/>
       <c r="O63" s="35"/>
     </row>
-    <row r="64" spans="1:15" ht="92.25">
+    <row r="64" spans="1:15" ht="73.5">
       <c r="A64" s="3">
         <v>3</v>
       </c>
@@ -4360,26 +4758,36 @@
         <v>53</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="35"/>
+        <v>180</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M64" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="45"/>
       <c r="O64" s="35"/>
     </row>
-    <row r="65" spans="1:16" ht="110.25">
+    <row r="65" spans="1:16" ht="73.5">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -4395,23 +4803,33 @@
         <v>53</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="35"/>
+        <v>181</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="45"/>
       <c r="O65" s="35"/>
     </row>
     <row r="66" spans="1:16" ht="36.75">
@@ -4430,26 +4848,36 @@
         <v>15</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M66" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="45"/>
       <c r="O66" s="35"/>
     </row>
-    <row r="67" spans="1:16" ht="36.75">
+    <row r="67" spans="1:16" ht="55.5">
       <c r="A67" s="3">
         <v>3</v>
       </c>
@@ -4462,29 +4890,39 @@
         <v>64</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="35"/>
+        <v>183</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M67" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="45"/>
       <c r="O67" s="35"/>
     </row>
-    <row r="68" spans="1:16" ht="55.5">
+    <row r="68" spans="1:16" ht="36.75">
       <c r="A68" s="3">
         <v>3</v>
       </c>
@@ -4493,103 +4931,137 @@
         <v>67</v>
       </c>
       <c r="C68" s="47">
+        <f>$B$48</f>
+        <v>47</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="O68" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="36.75">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C69" s="47">
+        <f>$B$48</f>
+        <v>47</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M69" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="45"/>
+      <c r="O69" s="35"/>
+    </row>
+    <row r="70" spans="1:16" ht="36.75">
+      <c r="A70" s="3">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="47">
         <f>$B$65</f>
         <v>64</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="1:16" ht="73.5">
-      <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="C69" s="47">
-        <f>$B$64</f>
-        <v>63</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-    </row>
-    <row r="70" spans="1:16" ht="73.5">
-      <c r="A70" s="3">
-        <v>3</v>
-      </c>
-      <c r="B70" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="C70" s="47">
-        <f>$B$64</f>
-        <v>63</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H70" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="35"/>
+      <c r="H70" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M70" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="45"/>
       <c r="O70" s="35"/>
     </row>
-    <row r="71" spans="1:16" ht="312">
+    <row r="71" spans="1:16" ht="36.75">
       <c r="A71" s="3">
         <v>3</v>
       </c>
@@ -4598,33 +5070,43 @@
         <v>70</v>
       </c>
       <c r="C71" s="47">
-        <f>$B$65</f>
-        <v>64</v>
+        <f>$B$70</f>
+        <v>69</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H71" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="35"/>
+        <v>195</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M71" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="45"/>
       <c r="O71" s="35"/>
     </row>
-    <row r="72" spans="1:16" ht="55.5">
+    <row r="72" spans="1:16" ht="36.75">
       <c r="A72" s="3">
         <v>3</v>
       </c>
@@ -4637,62 +5119,85 @@
         <v>64</v>
       </c>
       <c r="D72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="F72" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H72" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M72" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="45"/>
       <c r="O72" s="35"/>
     </row>
-    <row r="73" spans="1:16" ht="73.5">
+    <row r="73" spans="1:16" ht="55.5">
       <c r="A73" s="3">
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" ref="B73:B74" si="5">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C73" s="47">
-        <f>$B$71</f>
-        <v>70</v>
-      </c>
-      <c r="D73" s="12"/>
+        <f>$B$65</f>
+        <v>64</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="E73" s="12" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G73" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="G73" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="45"/>
-      <c r="P73" t="s">
-        <v>20</v>
+      <c r="H73" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M73" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="O73" s="35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="73.5">
@@ -4700,113 +5205,216 @@
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C74" s="47">
-        <f>$B$71</f>
-        <v>70</v>
-      </c>
-      <c r="D74" s="12"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="E74" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="35"/>
+        <v>206</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M74" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="45"/>
       <c r="O74" s="35"/>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:16" ht="129">
+      <c r="A75" s="3">
+        <v>3</v>
+      </c>
       <c r="B75" s="3">
-        <f t="shared" ref="B75:B125" si="6">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="35"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M75" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="45"/>
       <c r="O75" s="35"/>
     </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="3"/>
+    <row r="76" spans="1:16" ht="293.25">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
       <c r="B76" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="35"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M76" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="45"/>
       <c r="O76" s="35"/>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="3"/>
+    <row r="77" spans="1:16" ht="366.75">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
       <c r="B77" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="35"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M77" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="45"/>
       <c r="O77" s="35"/>
     </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="3"/>
+    <row r="78" spans="1:16" ht="78.75" customHeight="1">
+      <c r="A78" s="3">
+        <v>3</v>
+      </c>
       <c r="B78" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B78:B79" si="6">ROW()-1</f>
         <v>77</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="C78" s="47">
+        <f>$B$77</f>
+        <v>76</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M78" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="3"/>
@@ -4814,24 +5422,24 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="13"/>
       <c r="G79" s="4"/>
       <c r="H79" s="40"/>
       <c r="I79" s="34"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="44"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="42"/>
       <c r="M79" s="43"/>
-      <c r="N79" s="35"/>
+      <c r="N79" s="45"/>
       <c r="O79" s="35"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="3"/>
       <c r="B80" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B80:B130" si="7">ROW()-1</f>
         <v>79</v>
       </c>
       <c r="C80" s="9"/>
@@ -4845,13 +5453,13 @@
       <c r="K80" s="35"/>
       <c r="L80" s="44"/>
       <c r="M80" s="43"/>
-      <c r="N80" s="35"/>
+      <c r="N80" s="45"/>
       <c r="O80" s="35"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="3"/>
       <c r="B81" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="C81" s="9"/>
@@ -4865,13 +5473,13 @@
       <c r="K81" s="35"/>
       <c r="L81" s="44"/>
       <c r="M81" s="43"/>
-      <c r="N81" s="35"/>
+      <c r="N81" s="45"/>
       <c r="O81" s="35"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="3"/>
       <c r="B82" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="C82" s="9"/>
@@ -4885,13 +5493,13 @@
       <c r="K82" s="35"/>
       <c r="L82" s="44"/>
       <c r="M82" s="43"/>
-      <c r="N82" s="35"/>
+      <c r="N82" s="45"/>
       <c r="O82" s="35"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="3"/>
       <c r="B83" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="C83" s="9"/>
@@ -4905,13 +5513,13 @@
       <c r="K83" s="35"/>
       <c r="L83" s="44"/>
       <c r="M83" s="43"/>
-      <c r="N83" s="35"/>
+      <c r="N83" s="45"/>
       <c r="O83" s="35"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="3"/>
       <c r="B84" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="C84" s="9"/>
@@ -4925,13 +5533,13 @@
       <c r="K84" s="35"/>
       <c r="L84" s="44"/>
       <c r="M84" s="43"/>
-      <c r="N84" s="35"/>
+      <c r="N84" s="45"/>
       <c r="O84" s="35"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="3"/>
       <c r="B85" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="C85" s="9"/>
@@ -4945,13 +5553,13 @@
       <c r="K85" s="35"/>
       <c r="L85" s="44"/>
       <c r="M85" s="43"/>
-      <c r="N85" s="35"/>
+      <c r="N85" s="45"/>
       <c r="O85" s="35"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="3"/>
       <c r="B86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="C86" s="9"/>
@@ -4965,13 +5573,13 @@
       <c r="K86" s="35"/>
       <c r="L86" s="44"/>
       <c r="M86" s="43"/>
-      <c r="N86" s="35"/>
+      <c r="N86" s="45"/>
       <c r="O86" s="35"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="3"/>
       <c r="B87" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="C87" s="9"/>
@@ -4985,13 +5593,13 @@
       <c r="K87" s="35"/>
       <c r="L87" s="44"/>
       <c r="M87" s="43"/>
-      <c r="N87" s="35"/>
+      <c r="N87" s="45"/>
       <c r="O87" s="35"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="3"/>
       <c r="B88" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="C88" s="9"/>
@@ -5005,13 +5613,13 @@
       <c r="K88" s="35"/>
       <c r="L88" s="44"/>
       <c r="M88" s="43"/>
-      <c r="N88" s="35"/>
+      <c r="N88" s="45"/>
       <c r="O88" s="35"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="3"/>
       <c r="B89" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="C89" s="9"/>
@@ -5025,13 +5633,13 @@
       <c r="K89" s="35"/>
       <c r="L89" s="44"/>
       <c r="M89" s="43"/>
-      <c r="N89" s="35"/>
+      <c r="N89" s="45"/>
       <c r="O89" s="35"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="3"/>
       <c r="B90" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="C90" s="9"/>
@@ -5045,13 +5653,13 @@
       <c r="K90" s="35"/>
       <c r="L90" s="44"/>
       <c r="M90" s="43"/>
-      <c r="N90" s="35"/>
+      <c r="N90" s="45"/>
       <c r="O90" s="35"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="3"/>
       <c r="B91" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="C91" s="9"/>
@@ -5065,13 +5673,13 @@
       <c r="K91" s="35"/>
       <c r="L91" s="44"/>
       <c r="M91" s="43"/>
-      <c r="N91" s="35"/>
+      <c r="N91" s="45"/>
       <c r="O91" s="35"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="3"/>
       <c r="B92" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="C92" s="9"/>
@@ -5085,13 +5693,13 @@
       <c r="K92" s="35"/>
       <c r="L92" s="44"/>
       <c r="M92" s="43"/>
-      <c r="N92" s="35"/>
+      <c r="N92" s="45"/>
       <c r="O92" s="35"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="3"/>
       <c r="B93" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="C93" s="9"/>
@@ -5105,13 +5713,13 @@
       <c r="K93" s="35"/>
       <c r="L93" s="44"/>
       <c r="M93" s="43"/>
-      <c r="N93" s="35"/>
+      <c r="N93" s="45"/>
       <c r="O93" s="35"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="C94" s="9"/>
@@ -5125,13 +5733,13 @@
       <c r="K94" s="35"/>
       <c r="L94" s="44"/>
       <c r="M94" s="43"/>
-      <c r="N94" s="35"/>
+      <c r="N94" s="45"/>
       <c r="O94" s="35"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3"/>
       <c r="B95" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="C95" s="9"/>
@@ -5145,13 +5753,13 @@
       <c r="K95" s="35"/>
       <c r="L95" s="44"/>
       <c r="M95" s="43"/>
-      <c r="N95" s="35"/>
+      <c r="N95" s="45"/>
       <c r="O95" s="35"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="3"/>
       <c r="B96" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C96" s="9"/>
@@ -5165,13 +5773,13 @@
       <c r="K96" s="35"/>
       <c r="L96" s="44"/>
       <c r="M96" s="43"/>
-      <c r="N96" s="35"/>
+      <c r="N96" s="45"/>
       <c r="O96" s="35"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="3"/>
       <c r="B97" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="C97" s="9"/>
@@ -5185,13 +5793,13 @@
       <c r="K97" s="35"/>
       <c r="L97" s="44"/>
       <c r="M97" s="43"/>
-      <c r="N97" s="35"/>
+      <c r="N97" s="45"/>
       <c r="O97" s="35"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="3"/>
       <c r="B98" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="C98" s="9"/>
@@ -5205,13 +5813,13 @@
       <c r="K98" s="35"/>
       <c r="L98" s="44"/>
       <c r="M98" s="43"/>
-      <c r="N98" s="35"/>
+      <c r="N98" s="45"/>
       <c r="O98" s="35"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="3"/>
       <c r="B99" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="C99" s="9"/>
@@ -5225,13 +5833,13 @@
       <c r="K99" s="35"/>
       <c r="L99" s="44"/>
       <c r="M99" s="43"/>
-      <c r="N99" s="35"/>
+      <c r="N99" s="45"/>
       <c r="O99" s="35"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="3"/>
       <c r="B100" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="C100" s="9"/>
@@ -5245,13 +5853,13 @@
       <c r="K100" s="35"/>
       <c r="L100" s="44"/>
       <c r="M100" s="43"/>
-      <c r="N100" s="35"/>
+      <c r="N100" s="45"/>
       <c r="O100" s="35"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="3"/>
       <c r="B101" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="C101" s="9"/>
@@ -5265,13 +5873,13 @@
       <c r="K101" s="35"/>
       <c r="L101" s="44"/>
       <c r="M101" s="43"/>
-      <c r="N101" s="35"/>
+      <c r="N101" s="45"/>
       <c r="O101" s="35"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3"/>
       <c r="B102" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="C102" s="9"/>
@@ -5285,13 +5893,13 @@
       <c r="K102" s="35"/>
       <c r="L102" s="44"/>
       <c r="M102" s="43"/>
-      <c r="N102" s="35"/>
+      <c r="N102" s="45"/>
       <c r="O102" s="35"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="3"/>
       <c r="B103" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="C103" s="9"/>
@@ -5305,13 +5913,13 @@
       <c r="K103" s="35"/>
       <c r="L103" s="44"/>
       <c r="M103" s="43"/>
-      <c r="N103" s="35"/>
+      <c r="N103" s="45"/>
       <c r="O103" s="35"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="3"/>
       <c r="B104" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="C104" s="9"/>
@@ -5325,13 +5933,13 @@
       <c r="K104" s="35"/>
       <c r="L104" s="44"/>
       <c r="M104" s="43"/>
-      <c r="N104" s="35"/>
+      <c r="N104" s="45"/>
       <c r="O104" s="35"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="3"/>
       <c r="B105" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="C105" s="9"/>
@@ -5345,13 +5953,13 @@
       <c r="K105" s="35"/>
       <c r="L105" s="44"/>
       <c r="M105" s="43"/>
-      <c r="N105" s="35"/>
+      <c r="N105" s="45"/>
       <c r="O105" s="35"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="3"/>
       <c r="B106" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="C106" s="9"/>
@@ -5365,13 +5973,13 @@
       <c r="K106" s="35"/>
       <c r="L106" s="44"/>
       <c r="M106" s="43"/>
-      <c r="N106" s="35"/>
+      <c r="N106" s="45"/>
       <c r="O106" s="35"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3"/>
       <c r="B107" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="C107" s="9"/>
@@ -5385,13 +5993,13 @@
       <c r="K107" s="35"/>
       <c r="L107" s="44"/>
       <c r="M107" s="43"/>
-      <c r="N107" s="35"/>
+      <c r="N107" s="45"/>
       <c r="O107" s="35"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="3"/>
       <c r="B108" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="C108" s="9"/>
@@ -5405,13 +6013,13 @@
       <c r="K108" s="35"/>
       <c r="L108" s="44"/>
       <c r="M108" s="43"/>
-      <c r="N108" s="35"/>
+      <c r="N108" s="45"/>
       <c r="O108" s="35"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="3"/>
       <c r="B109" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="C109" s="9"/>
@@ -5425,13 +6033,13 @@
       <c r="K109" s="35"/>
       <c r="L109" s="44"/>
       <c r="M109" s="43"/>
-      <c r="N109" s="35"/>
+      <c r="N109" s="45"/>
       <c r="O109" s="35"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="3"/>
       <c r="B110" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="C110" s="9"/>
@@ -5445,13 +6053,13 @@
       <c r="K110" s="35"/>
       <c r="L110" s="44"/>
       <c r="M110" s="43"/>
-      <c r="N110" s="35"/>
+      <c r="N110" s="45"/>
       <c r="O110" s="35"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="3"/>
       <c r="B111" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="C111" s="9"/>
@@ -5465,13 +6073,13 @@
       <c r="K111" s="35"/>
       <c r="L111" s="44"/>
       <c r="M111" s="43"/>
-      <c r="N111" s="35"/>
+      <c r="N111" s="45"/>
       <c r="O111" s="35"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="3"/>
       <c r="B112" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="C112" s="9"/>
@@ -5485,13 +6093,13 @@
       <c r="K112" s="35"/>
       <c r="L112" s="44"/>
       <c r="M112" s="43"/>
-      <c r="N112" s="35"/>
+      <c r="N112" s="45"/>
       <c r="O112" s="35"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="3"/>
       <c r="B113" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="C113" s="9"/>
@@ -5505,13 +6113,13 @@
       <c r="K113" s="35"/>
       <c r="L113" s="44"/>
       <c r="M113" s="43"/>
-      <c r="N113" s="35"/>
+      <c r="N113" s="45"/>
       <c r="O113" s="35"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="3"/>
       <c r="B114" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="C114" s="9"/>
@@ -5525,13 +6133,13 @@
       <c r="K114" s="35"/>
       <c r="L114" s="44"/>
       <c r="M114" s="43"/>
-      <c r="N114" s="35"/>
+      <c r="N114" s="45"/>
       <c r="O114" s="35"/>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="3"/>
       <c r="B115" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="C115" s="9"/>
@@ -5545,13 +6153,13 @@
       <c r="K115" s="35"/>
       <c r="L115" s="44"/>
       <c r="M115" s="43"/>
-      <c r="N115" s="35"/>
+      <c r="N115" s="45"/>
       <c r="O115" s="35"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="3"/>
       <c r="B116" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="C116" s="9"/>
@@ -5565,13 +6173,13 @@
       <c r="K116" s="35"/>
       <c r="L116" s="44"/>
       <c r="M116" s="43"/>
-      <c r="N116" s="35"/>
+      <c r="N116" s="45"/>
       <c r="O116" s="35"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="3"/>
       <c r="B117" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="C117" s="9"/>
@@ -5585,13 +6193,13 @@
       <c r="K117" s="35"/>
       <c r="L117" s="44"/>
       <c r="M117" s="43"/>
-      <c r="N117" s="35"/>
+      <c r="N117" s="45"/>
       <c r="O117" s="35"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="3"/>
       <c r="B118" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="C118" s="9"/>
@@ -5605,13 +6213,13 @@
       <c r="K118" s="35"/>
       <c r="L118" s="44"/>
       <c r="M118" s="43"/>
-      <c r="N118" s="35"/>
+      <c r="N118" s="45"/>
       <c r="O118" s="35"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="3"/>
       <c r="B119" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="C119" s="9"/>
@@ -5625,13 +6233,13 @@
       <c r="K119" s="35"/>
       <c r="L119" s="44"/>
       <c r="M119" s="43"/>
-      <c r="N119" s="35"/>
+      <c r="N119" s="45"/>
       <c r="O119" s="35"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="3"/>
       <c r="B120" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="C120" s="9"/>
@@ -5645,13 +6253,13 @@
       <c r="K120" s="35"/>
       <c r="L120" s="44"/>
       <c r="M120" s="43"/>
-      <c r="N120" s="35"/>
+      <c r="N120" s="45"/>
       <c r="O120" s="35"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="3"/>
       <c r="B121" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="C121" s="9"/>
@@ -5665,13 +6273,13 @@
       <c r="K121" s="35"/>
       <c r="L121" s="44"/>
       <c r="M121" s="43"/>
-      <c r="N121" s="35"/>
+      <c r="N121" s="45"/>
       <c r="O121" s="35"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="3"/>
       <c r="B122" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="C122" s="9"/>
@@ -5685,13 +6293,13 @@
       <c r="K122" s="35"/>
       <c r="L122" s="44"/>
       <c r="M122" s="43"/>
-      <c r="N122" s="35"/>
+      <c r="N122" s="45"/>
       <c r="O122" s="35"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="3"/>
       <c r="B123" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="C123" s="9"/>
@@ -5705,13 +6313,13 @@
       <c r="K123" s="35"/>
       <c r="L123" s="44"/>
       <c r="M123" s="43"/>
-      <c r="N123" s="35"/>
+      <c r="N123" s="45"/>
       <c r="O123" s="35"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="3"/>
       <c r="B124" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="C124" s="9"/>
@@ -5725,13 +6333,13 @@
       <c r="K124" s="35"/>
       <c r="L124" s="44"/>
       <c r="M124" s="43"/>
-      <c r="N124" s="35"/>
+      <c r="N124" s="45"/>
       <c r="O124" s="35"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="3"/>
       <c r="B125" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="C125" s="9"/>
@@ -5745,8 +6353,108 @@
       <c r="K125" s="35"/>
       <c r="L125" s="44"/>
       <c r="M125" s="43"/>
-      <c r="N125" s="35"/>
+      <c r="N125" s="45"/>
       <c r="O125" s="35"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="44"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="45"/>
+      <c r="O126" s="35"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="44"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="45"/>
+      <c r="O127" s="35"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="44"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="45"/>
+      <c r="O128" s="35"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="44"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="35"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="44"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
@@ -5766,31 +6474,11 @@
     <hyperlink ref="C38" location="'結合テスト'!B35" display="=$B$35" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
     <hyperlink ref="C42" location="'結合テスト'!B41" display="=$B$41" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
     <hyperlink ref="C49" location="'結合テスト'!B48" display="=$B$48" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
-    <hyperlink ref="C50" location="'結合テスト'!B51" display="=$B$51" xr:uid="{4DCFE79F-2AD2-49DC-B539-F63163AC966B}"/>
-    <hyperlink ref="C51" location="'結合テスト'!B51" display="=$B$51" xr:uid="{FFD0C603-CA80-4EEF-A6F6-D60D26B29885}"/>
-    <hyperlink ref="C52" location="'結合テスト'!B51" display="=$B$51" xr:uid="{7E55ACF4-3864-44A4-99EE-C3EA84537DF8}"/>
-    <hyperlink ref="C53" location="'結合テスト'!B51" display="=$B$51" xr:uid="{41523E33-3B03-4A32-BB00-1AEE4F7A586D}"/>
-    <hyperlink ref="C54" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BB4361AB-FF33-4DE0-A033-B87E45AFC03F}"/>
-    <hyperlink ref="C55" location="'結合テスト'!B51" display="=$B$51" xr:uid="{FEFF4063-2891-4F1A-A5BE-E5B8A5912DD5}"/>
-    <hyperlink ref="C56" location="'結合テスト'!B51" display="=$B$51" xr:uid="{7EDF06E4-9258-46D0-A1A0-182B8BFDA6F3}"/>
-    <hyperlink ref="C57" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BBF630A0-B49D-4B11-BF98-C1EDDA66B068}"/>
-    <hyperlink ref="C58" location="'結合テスト'!B51" display="=$B$51" xr:uid="{D58F9457-21B7-4849-BB0B-2BA533B76E76}"/>
-    <hyperlink ref="C59" location="'結合テスト'!B51" display="=$B$51" xr:uid="{BB9AD492-ADB0-47DC-93B6-CB7ACD4E5EE8}"/>
-    <hyperlink ref="C60" location="'結合テスト'!B51" display="=$B$51" xr:uid="{EFC64126-1E8B-4B18-AE92-041EC76B9D2A}"/>
-    <hyperlink ref="C61" location="'結合テスト'!B51" display="=$B$51" xr:uid="{D3D2192B-1357-4D2D-82BB-3AB92F6A08B9}"/>
-    <hyperlink ref="C62" location="'結合テスト'!B51" display="=$B$51" xr:uid="{80B7D5D6-D683-45C5-9941-7A7006EB3FC8}"/>
     <hyperlink ref="C64" location="'結合テスト'!B62" display="=$B$62" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
-    <hyperlink ref="C63" location="'結合テスト'!B51" display="=$B$51" xr:uid="{2E46C885-2C33-4564-A318-AA8F4C25DCEE}"/>
     <hyperlink ref="C65" location="'結合テスト'!B63" display="=$B$63" xr:uid="{F7225DF4-C33F-4D23-987C-947E897B6967}"/>
     <hyperlink ref="C66" location="'結合テスト'!B48" display="=$B$48" xr:uid="{259D4757-3B0F-4BCB-BBB2-9774831923B5}"/>
-    <hyperlink ref="C67" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
-    <hyperlink ref="C68" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
-    <hyperlink ref="C69" location="'結合テスト'!B64" display="=$B$67" xr:uid="{951B67CE-C360-4BB9-97D8-410C0DE3B421}"/>
-    <hyperlink ref="C71" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4698171C-E9EC-4A5B-AA44-7A7F5F99EB68}"/>
-    <hyperlink ref="C70" location="'結合テスト'!B64" display="=$B$67" xr:uid="{AB0DA2FC-D234-4D17-82B1-72531E7E1429}"/>
-    <hyperlink ref="C72" location="'結合テスト'!B65" display="=$B$65" xr:uid="{53B490DE-68C7-4F31-A63A-FD82EB4F2A67}"/>
-    <hyperlink ref="C73" location="'結合テスト'!B71" display="=$B$71" xr:uid="{63D94CF8-74A6-4F50-8456-40FDEA62A54C}"/>
-    <hyperlink ref="C74" location="'結合テスト'!B71" display="=$B$71" xr:uid="{B0D4A632-B636-4471-B3F2-56A110E92D22}"/>
+    <hyperlink ref="C70" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
+    <hyperlink ref="C67" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
     <hyperlink ref="C43" location="'結合テスト'!B41" display="=$B$41" xr:uid="{F2C30A4B-EFB1-4CB3-B875-507745F63A2E}"/>
     <hyperlink ref="C44" location="'結合テスト'!B39" display="=$B$39" xr:uid="{7716002E-BA8F-4704-A45B-3CAB2CD1CD85}"/>
     <hyperlink ref="C45" location="'結合テスト'!B39" display="=$B$39" xr:uid="{162A7A04-5D92-45E1-82C3-F67D915E948A}"/>
@@ -5800,6 +6488,24 @@
     <hyperlink ref="C4:C8" location="'結合テスト'!B2" display="=$B$2" xr:uid="{11293747-8777-433D-9F9B-D03724B271C0}"/>
     <hyperlink ref="C10:C11" location="'結合テスト'!B5" display="=$B$5" xr:uid="{FE065096-0978-4BDB-9574-B725ED279EEC}"/>
     <hyperlink ref="C20" location="'結合テスト'!B5" display="=$B$5" xr:uid="{5059AE4B-B3DD-42AA-BA6C-54997F510D20}"/>
+    <hyperlink ref="C71" location="'結合テスト'!B68" display="=$B$68" xr:uid="{DDBFEC8C-2867-44A2-9217-3F830B4DE123}"/>
+    <hyperlink ref="C73" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4B45BDA6-B9C8-4D83-AA44-984C50A3A649}"/>
+    <hyperlink ref="C72" location="'結合テスト'!B65" display="=$B$65" xr:uid="{8F337199-F145-401F-B319-DD6FE334291F}"/>
+    <hyperlink ref="C78" location="'結合テスト'!B75" display="=$B$74" xr:uid="{7913AED9-61FF-4A29-A670-5E114281C718}"/>
+    <hyperlink ref="C52" location="'結合テスト'!B48" display="=$B$48" xr:uid="{3E84B9B6-514D-48ED-B44A-D912B9ADB538}"/>
+    <hyperlink ref="C53" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2BE8C696-04CC-4AE1-9F8D-A23896932CBF}"/>
+    <hyperlink ref="C54" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2859717-0D20-4775-ADAE-CEC7A7B64EB6}"/>
+    <hyperlink ref="C55" location="'結合テスト'!B48" display="=$B$48" xr:uid="{69528D96-D424-4A27-A60C-BE1A21252EAB}"/>
+    <hyperlink ref="C56" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2ECDEC6D-D031-4EA6-8A4A-F0CD6872AD85}"/>
+    <hyperlink ref="C57" location="'結合テスト'!B48" display="=$B$48" xr:uid="{27AFDEB2-2282-434E-8E8A-186D8EBB5BED}"/>
+    <hyperlink ref="C58" location="'結合テスト'!B48" display="=$B$48" xr:uid="{55702655-C691-4953-8BFB-312C1263DD7A}"/>
+    <hyperlink ref="C59" location="'結合テスト'!B48" display="=$B$48" xr:uid="{07E93FE6-7C2A-4D3E-956B-7E606ED4333E}"/>
+    <hyperlink ref="C60" location="'結合テスト'!B48" display="=$B$48" xr:uid="{BE087F9B-2361-478F-B964-05E0187B2559}"/>
+    <hyperlink ref="C61" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F479D2D7-08E2-47DD-B792-2EDA702B62DA}"/>
+    <hyperlink ref="C62" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F9DEE477-E3A2-4E23-B9C4-9BE50E81B872}"/>
+    <hyperlink ref="C63" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2B09C88-C966-4F16-AE36-70748A701353}"/>
+    <hyperlink ref="C68" location="'結合テスト'!B48" display="=$B$48" xr:uid="{81B6892C-5BFD-4FF5-AF49-EA9A4758676C}"/>
+    <hyperlink ref="C69" location="'結合テスト'!B48" display="=$B$48" xr:uid="{D551B7F7-2449-460D-AC85-118C6558D3FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5821,81 +6527,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.375" customWidth="1"/>
     <col min="13" max="13" width="9" style="32"/>
     <col min="14" max="14" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -5903,31 +6609,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -5935,13 +6641,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -5949,13 +6655,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -5963,13 +6669,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -5977,13 +6683,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -5991,13 +6697,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -6005,13 +6711,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -6019,13 +6725,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -6033,13 +6739,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -6047,13 +6753,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -6061,13 +6767,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -6075,13 +6781,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -6089,13 +6795,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -6103,13 +6809,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -6117,7 +6823,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -6125,7 +6831,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -6133,7 +6839,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -6141,7 +6847,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -6149,7 +6855,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -6157,7 +6863,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -6165,7 +6871,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -6173,7 +6879,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -6181,7 +6887,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -6189,7 +6895,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -6197,7 +6903,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -6205,7 +6911,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -6213,7 +6919,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -6221,7 +6927,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -6229,7 +6935,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -6237,7 +6943,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -6245,7 +6951,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -6253,7 +6959,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -6261,7 +6967,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -6269,7 +6975,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -6277,7 +6983,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -6285,7 +6991,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -6293,7 +6999,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -6301,7 +7007,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -6309,7 +7015,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -6317,7 +7023,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -6325,7 +7031,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -6333,7 +7039,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -6341,7 +7047,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -6349,7 +7055,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -6357,7 +7063,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -6365,7 +7071,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>

--- a/test_case/integration-test-case_v3.xlsx
+++ b/test_case/integration-test-case_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26616"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BE1615-A2A3-4C1D-A9AB-8C9AD6051CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABCDB8E0-783A-4D74-AD62-582FCA463BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="325">
   <si>
     <t>ver</t>
   </si>
@@ -891,6 +891,69 @@
   </si>
   <si>
     <t>DBの「update_time」カラムへ「yyyy-mm-dd hh:mm:ss」の形式で、更新したときの日時が登録される</t>
+  </si>
+  <si>
+    <t>データ呼び出し失敗</t>
+  </si>
+  <si>
+    <t>一覧画面でDBの読み込みに失敗した際、エラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>1.一覧画面を開く
+2.XAMPP内、MySQLの【Stop】ボタンをクリックする
+3.ブラウザの更新ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>エラー画面（fail.php）へ遷移し、「データの呼び出しに失敗しました」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>削除画面でDBの読み込みに失敗した際、エラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>1.一覧画面を開く
+2.XAMPP内、MySQLの【Stop】ボタンをクリックする
+3.いずれかのレコードの【削除する】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除確認画面でに前画面からのレコードがない場合、エラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>1.「削除確認画面（delete_confirm.php）」を直接開く</t>
+  </si>
+  <si>
+    <t>更新画面でDBの読み込みに失敗した際、エラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>1.一覧画面を開く
+2.XAMPP内、MySQLの【Stop】ボタンをクリックする
+3.いずれかのレコードの【更新する】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除確認画面で前画面からのレコードがない場合、エラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>1.「更新確認画面（update_confirm.php）」を直接開く</t>
+  </si>
+  <si>
+    <t>削除フラグが「無効」のレコードでは「削除済み」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>1.一覧画面の「削除フラグ：無効」となっているレコードの「操作」列を目視する</t>
+  </si>
+  <si>
+    <t>「削除済み」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>ボタン表示</t>
+  </si>
+  <si>
+    <t>削除フラグが「有効」のレコードでは操作ボタンを表示する</t>
+  </si>
+  <si>
+    <t>1.一覧画面の「削除フラグ：有効」となっているレコードの「操作」列を目視する</t>
+  </si>
+  <si>
+    <t>「更新する」「削除する」のボタンが表示される</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -1910,8 +1973,8 @@
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
+      <pane ySplit="1" topLeftCell="E79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1983,7 +2046,6 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="C2" s="9"/>
@@ -2025,7 +2087,6 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B77" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
@@ -2067,11 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="47">
-        <f t="shared" ref="C4:C8" si="1">$B$2</f>
+        <f t="shared" ref="C4:C8" si="0">$B$2</f>
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -2112,11 +2172,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="47">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="47">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -2157,11 +2216,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="47">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -2202,11 +2260,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="47">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="47">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -2247,11 +2304,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="47">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="47">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -2292,7 +2348,6 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="47">
@@ -2337,11 +2392,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="47">
-        <f t="shared" ref="C10:C11" si="2">$B$5</f>
+        <f t="shared" ref="C10:C11" si="1">$B$5</f>
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2382,11 +2436,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -2427,11 +2480,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C12" s="47">
-        <f t="shared" ref="C12:C15" si="3">$B$6</f>
+        <f t="shared" ref="C12:C15" si="2">$B$6</f>
         <v>5</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -2479,11 +2531,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C13" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -2524,11 +2575,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -2569,11 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2614,7 +2663,6 @@
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
@@ -2656,7 +2704,6 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="47">
@@ -2701,7 +2748,6 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C18" s="47">
@@ -2746,7 +2792,6 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="47">
@@ -2791,7 +2836,6 @@
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="47">
@@ -2836,7 +2880,6 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="9"/>
@@ -2885,7 +2928,6 @@
         <v>1</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
@@ -2927,11 +2969,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="47">
-        <f t="shared" ref="C23:C26" si="4">$B$5</f>
+        <f t="shared" ref="C23:C26" si="3">$B$5</f>
         <v>4</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2979,11 +3020,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -3024,11 +3064,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -3069,11 +3108,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3114,7 +3152,6 @@
         <v>2</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C27" s="9"/>
@@ -3156,7 +3193,6 @@
         <v>2</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="9"/>
@@ -3198,7 +3234,6 @@
         <v>2</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="9"/>
@@ -3240,7 +3275,6 @@
         <v>2</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" s="9"/>
@@ -3282,7 +3316,6 @@
         <v>2</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C31" s="9"/>
@@ -3324,7 +3357,6 @@
         <v>2</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="9"/>
@@ -3366,7 +3398,6 @@
         <v>2</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="9"/>
@@ -3408,7 +3439,6 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="9"/>
@@ -3450,7 +3480,6 @@
         <v>3</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="9"/>
@@ -3496,7 +3525,6 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C36" s="9"/>
@@ -3538,7 +3566,6 @@
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C37" s="9"/>
@@ -3580,7 +3607,6 @@
         <v>3</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C38" s="47">
@@ -3625,7 +3651,6 @@
         <v>3</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C39" s="47">
@@ -3670,7 +3695,6 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C40" s="47">
@@ -3715,7 +3739,6 @@
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C41" s="47">
@@ -3760,7 +3783,6 @@
         <v>3</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C42" s="47">
@@ -3805,7 +3827,6 @@
         <v>3</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C43" s="47">
@@ -3850,7 +3871,6 @@
         <v>3</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C44" s="47">
@@ -3895,7 +3915,6 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C45" s="47">
@@ -3940,7 +3959,6 @@
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C46" s="47">
@@ -3985,7 +4003,6 @@
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C47" s="47">
@@ -4030,7 +4047,6 @@
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C48" s="9"/>
@@ -4072,7 +4088,6 @@
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C49" s="47">
@@ -4117,11 +4132,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C50" s="47">
-        <f t="shared" ref="C50:C51" si="5">$B$48</f>
+        <f t="shared" ref="C50:C51" si="4">$B$48</f>
         <v>47</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4162,11 +4176,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C51" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -4207,7 +4220,6 @@
         <v>3</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C52" s="47">
@@ -4252,7 +4264,6 @@
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="47">
@@ -4297,7 +4308,6 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C54" s="47">
@@ -4342,7 +4352,6 @@
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C55" s="47">
@@ -4387,7 +4396,6 @@
         <v>3</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C56" s="47">
@@ -4432,7 +4440,6 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C57" s="47">
@@ -4477,7 +4484,6 @@
         <v>3</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C58" s="47">
@@ -4522,7 +4528,6 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C59" s="47">
@@ -4567,7 +4572,6 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C60" s="47">
@@ -4612,7 +4616,6 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C61" s="47">
@@ -4657,7 +4660,6 @@
         <v>3</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C62" s="47">
@@ -4702,7 +4704,6 @@
         <v>3</v>
       </c>
       <c r="B63" s="3">
-        <f>ROW()-1</f>
         <v>62</v>
       </c>
       <c r="C63" s="47">
@@ -4747,7 +4748,6 @@
         <v>3</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C64" s="47">
@@ -4792,7 +4792,6 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C65" s="47">
@@ -4837,7 +4836,6 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C66" s="47">
@@ -4882,7 +4880,6 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C67" s="47">
@@ -4927,7 +4924,6 @@
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="47">
@@ -4976,7 +4972,6 @@
         <v>3</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="47">
@@ -5021,7 +5016,6 @@
         <v>3</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C70" s="47">
@@ -5066,7 +5060,6 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="C71" s="47">
@@ -5111,7 +5104,6 @@
         <v>3</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="47">
@@ -5156,7 +5148,6 @@
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C73" s="47">
@@ -5205,7 +5196,6 @@
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="47"/>
@@ -5247,7 +5237,6 @@
         <v>3</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C75" s="47"/>
@@ -5289,7 +5278,6 @@
         <v>3</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C76" s="47"/>
@@ -5331,7 +5319,6 @@
         <v>3</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C77" s="47"/>
@@ -5373,7 +5360,6 @@
         <v>3</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" ref="B78:B79" si="6">ROW()-1</f>
         <v>77</v>
       </c>
       <c r="C78" s="47">
@@ -5416,18 +5402,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="3"/>
+    <row r="79" spans="1:16" ht="55.5">
+      <c r="A79" s="3">
+        <v>3</v>
+      </c>
       <c r="B79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B78:B85" si="5">ROW()-1</f>
         <v>78</v>
       </c>
       <c r="C79" s="47"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="40"/>
+      <c r="D79" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="I79" s="34"/>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
@@ -5436,122 +5434,194 @@
       <c r="N79" s="45"/>
       <c r="O79" s="35"/>
     </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="3"/>
+    <row r="80" spans="1:16" ht="55.5">
+      <c r="A80" s="3">
+        <v>3</v>
+      </c>
       <c r="B80" s="3">
-        <f t="shared" ref="B80:B130" si="7">ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="40"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H80" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="I80" s="34"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="44"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="42"/>
       <c r="M80" s="43"/>
       <c r="N80" s="45"/>
       <c r="O80" s="35"/>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="3"/>
+    <row r="81" spans="1:15" ht="55.5">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
       <c r="B81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="40"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="I81" s="34"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="44"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="42"/>
       <c r="M81" s="43"/>
       <c r="N81" s="45"/>
       <c r="O81" s="35"/>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="3"/>
+    <row r="82" spans="1:15" ht="55.5">
+      <c r="A82" s="3">
+        <v>3</v>
+      </c>
       <c r="B82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="40"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H82" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="I82" s="34"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="44"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="42"/>
       <c r="M82" s="43"/>
       <c r="N82" s="45"/>
       <c r="O82" s="35"/>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="3"/>
+    <row r="83" spans="1:15" ht="55.5">
+      <c r="A83" s="3">
+        <v>3</v>
+      </c>
       <c r="B83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="40"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="I83" s="34"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="44"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="42"/>
       <c r="M83" s="43"/>
       <c r="N83" s="45"/>
       <c r="O83" s="35"/>
     </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="3"/>
+    <row r="84" spans="1:15" ht="55.5">
+      <c r="A84" s="3">
+        <v>3</v>
+      </c>
       <c r="B84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="40"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" s="40" t="s">
+        <v>233</v>
+      </c>
       <c r="I84" s="34"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="44"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="42"/>
       <c r="M84" s="43"/>
       <c r="N84" s="45"/>
       <c r="O84" s="35"/>
     </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="3"/>
+    <row r="85" spans="1:15" ht="36.75">
+      <c r="A85" s="3">
+        <v>3</v>
+      </c>
       <c r="B85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="40"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>237</v>
+      </c>
       <c r="I85" s="34"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="44"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="42"/>
       <c r="M85" s="43"/>
       <c r="N85" s="45"/>
       <c r="O85" s="35"/>
@@ -5559,7 +5629,7 @@
     <row r="86" spans="1:15">
       <c r="A86" s="3"/>
       <c r="B86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B80:B130" si="6">ROW()-1</f>
         <v>85</v>
       </c>
       <c r="C86" s="9"/>
@@ -5579,7 +5649,7 @@
     <row r="87" spans="1:15">
       <c r="A87" s="3"/>
       <c r="B87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="C87" s="9"/>
@@ -5599,7 +5669,7 @@
     <row r="88" spans="1:15">
       <c r="A88" s="3"/>
       <c r="B88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="C88" s="9"/>
@@ -5619,7 +5689,7 @@
     <row r="89" spans="1:15">
       <c r="A89" s="3"/>
       <c r="B89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="C89" s="9"/>
@@ -5639,7 +5709,7 @@
     <row r="90" spans="1:15">
       <c r="A90" s="3"/>
       <c r="B90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="C90" s="9"/>
@@ -5659,7 +5729,7 @@
     <row r="91" spans="1:15">
       <c r="A91" s="3"/>
       <c r="B91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="C91" s="9"/>
@@ -5679,7 +5749,7 @@
     <row r="92" spans="1:15">
       <c r="A92" s="3"/>
       <c r="B92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="C92" s="9"/>
@@ -5699,7 +5769,7 @@
     <row r="93" spans="1:15">
       <c r="A93" s="3"/>
       <c r="B93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C93" s="9"/>
@@ -5719,7 +5789,7 @@
     <row r="94" spans="1:15">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="C94" s="9"/>
@@ -5739,7 +5809,7 @@
     <row r="95" spans="1:15">
       <c r="A95" s="3"/>
       <c r="B95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="C95" s="9"/>
@@ -5759,7 +5829,7 @@
     <row r="96" spans="1:15">
       <c r="A96" s="3"/>
       <c r="B96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="C96" s="9"/>
@@ -5779,7 +5849,7 @@
     <row r="97" spans="1:15">
       <c r="A97" s="3"/>
       <c r="B97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="C97" s="9"/>
@@ -5799,7 +5869,7 @@
     <row r="98" spans="1:15">
       <c r="A98" s="3"/>
       <c r="B98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="C98" s="9"/>
@@ -5819,7 +5889,7 @@
     <row r="99" spans="1:15">
       <c r="A99" s="3"/>
       <c r="B99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="C99" s="9"/>
@@ -5839,7 +5909,7 @@
     <row r="100" spans="1:15">
       <c r="A100" s="3"/>
       <c r="B100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="C100" s="9"/>
@@ -5859,7 +5929,7 @@
     <row r="101" spans="1:15">
       <c r="A101" s="3"/>
       <c r="B101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="C101" s="9"/>
@@ -5879,7 +5949,7 @@
     <row r="102" spans="1:15">
       <c r="A102" s="3"/>
       <c r="B102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="C102" s="9"/>
@@ -5899,7 +5969,7 @@
     <row r="103" spans="1:15">
       <c r="A103" s="3"/>
       <c r="B103" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="C103" s="9"/>
@@ -5919,7 +5989,7 @@
     <row r="104" spans="1:15">
       <c r="A104" s="3"/>
       <c r="B104" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="C104" s="9"/>
@@ -5939,7 +6009,7 @@
     <row r="105" spans="1:15">
       <c r="A105" s="3"/>
       <c r="B105" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="C105" s="9"/>
@@ -5959,7 +6029,7 @@
     <row r="106" spans="1:15">
       <c r="A106" s="3"/>
       <c r="B106" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="C106" s="9"/>
@@ -5979,7 +6049,7 @@
     <row r="107" spans="1:15">
       <c r="A107" s="3"/>
       <c r="B107" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="C107" s="9"/>
@@ -5999,7 +6069,7 @@
     <row r="108" spans="1:15">
       <c r="A108" s="3"/>
       <c r="B108" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="C108" s="9"/>
@@ -6019,7 +6089,7 @@
     <row r="109" spans="1:15">
       <c r="A109" s="3"/>
       <c r="B109" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="C109" s="9"/>
@@ -6039,7 +6109,7 @@
     <row r="110" spans="1:15">
       <c r="A110" s="3"/>
       <c r="B110" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="C110" s="9"/>
@@ -6059,7 +6129,7 @@
     <row r="111" spans="1:15">
       <c r="A111" s="3"/>
       <c r="B111" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C111" s="9"/>
@@ -6079,7 +6149,7 @@
     <row r="112" spans="1:15">
       <c r="A112" s="3"/>
       <c r="B112" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="C112" s="9"/>
@@ -6099,7 +6169,7 @@
     <row r="113" spans="1:15">
       <c r="A113" s="3"/>
       <c r="B113" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="C113" s="9"/>
@@ -6119,7 +6189,7 @@
     <row r="114" spans="1:15">
       <c r="A114" s="3"/>
       <c r="B114" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="C114" s="9"/>
@@ -6139,7 +6209,7 @@
     <row r="115" spans="1:15">
       <c r="A115" s="3"/>
       <c r="B115" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="C115" s="9"/>
@@ -6159,7 +6229,7 @@
     <row r="116" spans="1:15">
       <c r="A116" s="3"/>
       <c r="B116" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="C116" s="9"/>
@@ -6179,7 +6249,7 @@
     <row r="117" spans="1:15">
       <c r="A117" s="3"/>
       <c r="B117" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="C117" s="9"/>
@@ -6199,7 +6269,7 @@
     <row r="118" spans="1:15">
       <c r="A118" s="3"/>
       <c r="B118" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="C118" s="9"/>
@@ -6219,7 +6289,7 @@
     <row r="119" spans="1:15">
       <c r="A119" s="3"/>
       <c r="B119" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="C119" s="9"/>
@@ -6239,7 +6309,7 @@
     <row r="120" spans="1:15">
       <c r="A120" s="3"/>
       <c r="B120" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="C120" s="9"/>
@@ -6259,7 +6329,7 @@
     <row r="121" spans="1:15">
       <c r="A121" s="3"/>
       <c r="B121" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C121" s="9"/>
@@ -6279,7 +6349,7 @@
     <row r="122" spans="1:15">
       <c r="A122" s="3"/>
       <c r="B122" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="C122" s="9"/>
@@ -6299,7 +6369,7 @@
     <row r="123" spans="1:15">
       <c r="A123" s="3"/>
       <c r="B123" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="C123" s="9"/>
@@ -6319,7 +6389,7 @@
     <row r="124" spans="1:15">
       <c r="A124" s="3"/>
       <c r="B124" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="C124" s="9"/>
@@ -6339,7 +6409,7 @@
     <row r="125" spans="1:15">
       <c r="A125" s="3"/>
       <c r="B125" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="C125" s="9"/>
@@ -6359,7 +6429,7 @@
     <row r="126" spans="1:15">
       <c r="A126" s="3"/>
       <c r="B126" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="C126" s="9"/>
@@ -6379,7 +6449,7 @@
     <row r="127" spans="1:15">
       <c r="A127" s="3"/>
       <c r="B127" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="C127" s="9"/>
@@ -6399,7 +6469,7 @@
     <row r="128" spans="1:15">
       <c r="A128" s="3"/>
       <c r="B128" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="C128" s="9"/>
@@ -6419,7 +6489,7 @@
     <row r="129" spans="1:15">
       <c r="A129" s="3"/>
       <c r="B129" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="C129" s="9"/>
@@ -6439,7 +6509,7 @@
     <row r="130" spans="1:15">
       <c r="A130" s="3"/>
       <c r="B130" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="C130" s="9"/>
@@ -6545,63 +6615,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -6609,31 +6679,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -6641,13 +6711,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -6655,13 +6725,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -6669,13 +6739,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -6683,13 +6753,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -6697,13 +6767,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -6711,13 +6781,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -6725,13 +6795,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -6739,13 +6809,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -6753,13 +6823,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -6767,13 +6837,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -6781,13 +6851,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -6795,13 +6865,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -6809,13 +6879,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -6823,7 +6893,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -6831,7 +6901,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -6839,7 +6909,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -6847,7 +6917,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -6855,7 +6925,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -6863,7 +6933,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -6871,7 +6941,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -6879,7 +6949,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -6887,7 +6957,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -6895,7 +6965,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -6903,7 +6973,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -6911,7 +6981,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -6919,7 +6989,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -6927,7 +6997,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -6935,7 +7005,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -6943,7 +7013,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -6951,7 +7021,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -6959,7 +7029,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -6967,7 +7037,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -6975,7 +7045,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -6983,7 +7053,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -6991,7 +7061,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -6999,7 +7069,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -7007,7 +7077,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -7015,7 +7085,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -7023,7 +7093,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -7031,7 +7101,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -7039,7 +7109,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -7047,7 +7117,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -7055,7 +7125,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -7063,7 +7133,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -7071,7 +7141,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>
